--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pryor\Documents\GithubProjects\FEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A61A68-4C99-4A4C-B77D-F72E9D6AB352}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A1BA78-7AE9-4104-B6C6-885CAA122858}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5483" yWindow="1545" windowWidth="13559" windowHeight="10522" activeTab="1" xr2:uid="{3517A5E7-3548-42BA-9135-77FEA8754BEE}"/>
+    <workbookView xWindow="1815" yWindow="368" windowWidth="13560" windowHeight="10522" activeTab="5" xr2:uid="{3517A5E7-3548-42BA-9135-77FEA8754BEE}"/>
   </bookViews>
   <sheets>
     <sheet name="f3" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="f17" sheetId="4" r:id="rId4"/>
     <sheet name="f20" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="40">
   <si>
     <t>epsilon</t>
   </si>
@@ -133,6 +134,33 @@
   <si>
     <t>Tree2</t>
   </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>PSO</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
 </sst>
 </file>
 
@@ -173,11 +201,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF660522-7DD7-4ED9-968B-8C03C4DC415C}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -762,14 +793,14 @@
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>20.265616938911201</v>
+      <c r="C2" s="1">
+        <v>5.7524588218615899E-5</v>
       </c>
       <c r="D2" s="1">
         <v>6.0042900891676897E-5</v>
       </c>
-      <c r="E2">
-        <v>20.364241589853901</v>
+      <c r="E2" s="1">
+        <v>5.13806235038494E-5</v>
       </c>
       <c r="F2">
         <v>2.6077460604893798</v>
@@ -781,13 +812,13 @@
         <v>21.6064150808667</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K2">
-        <v>8</v>
+        <v>8.0704225352112609</v>
       </c>
       <c r="L2">
         <v>1000</v>
@@ -799,13 +830,13 @@
         <v>8.07617690579273</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P2">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q2">
-        <v>10.54</v>
+        <v>8.0868087904860992</v>
       </c>
       <c r="R2">
         <v>1000</v>
@@ -833,14 +864,14 @@
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>20.397428594215398</v>
+      <c r="C3" s="1">
+        <v>6.3630338225539805E-5</v>
       </c>
       <c r="D3" s="1">
         <v>6.0399300523261701E-5</v>
       </c>
-      <c r="E3">
-        <v>20.4422572433098</v>
+      <c r="E3" s="1">
+        <v>5.2742402168792698E-5</v>
       </c>
       <c r="F3">
         <v>0.86144077193354096</v>
@@ -852,13 +883,13 @@
         <v>21.602710105114301</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>7.54</v>
+        <v>8.0482271058256103</v>
       </c>
       <c r="L3">
         <v>1000</v>
@@ -870,13 +901,13 @@
         <v>8.0549679399353291</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P3">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q3">
-        <v>9.5399999999999991</v>
+        <v>8.0329917246670597</v>
       </c>
       <c r="R3">
         <v>1000</v>
@@ -904,14 +935,14 @@
       <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>20.392168619087698</v>
+      <c r="C4" s="1">
+        <v>5.4633747755605797E-5</v>
       </c>
       <c r="D4" s="1">
         <v>5.6246423956185503E-5</v>
       </c>
-      <c r="E4">
-        <v>20.407747425572801</v>
+      <c r="E4" s="1">
+        <v>5.8541820294966102E-5</v>
       </c>
       <c r="F4">
         <v>1.02966173767734</v>
@@ -923,13 +954,13 @@
         <v>21.6051745645414</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>5.82</v>
+        <v>8.01655066586288</v>
       </c>
       <c r="L4">
         <v>1000</v>
@@ -941,13 +972,13 @@
         <v>8.1154710363347302</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q4">
-        <v>9.52</v>
+        <v>8.0419246999506697</v>
       </c>
       <c r="R4">
         <v>1000</v>
@@ -975,14 +1006,14 @@
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>20.448112221520599</v>
+      <c r="C5" s="1">
+        <v>5.2349804445572801E-5</v>
       </c>
       <c r="D5" s="1">
         <v>6.0714783967075097E-5</v>
       </c>
-      <c r="E5">
-        <v>20.436459015668198</v>
+      <c r="E5" s="1">
+        <v>5.83620222411873E-5</v>
       </c>
       <c r="F5">
         <v>1.1168694735927001</v>
@@ -994,13 +1025,13 @@
         <v>21.6058486335852</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>11.08</v>
+        <v>8.1207869786814193</v>
       </c>
       <c r="L5">
         <v>1000</v>
@@ -1012,13 +1043,13 @@
         <v>8.0856579163698097</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P5">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q5">
-        <v>10.16</v>
+        <v>8.0543651011125093</v>
       </c>
       <c r="R5">
         <v>1000</v>
@@ -1046,14 +1077,14 @@
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>20.403781785833299</v>
+      <c r="C6" s="1">
+        <v>6.9271159017336701E-5</v>
       </c>
       <c r="D6" s="1">
         <v>5.8489418500062799E-5</v>
       </c>
-      <c r="E6">
-        <v>20.318693630649399</v>
+      <c r="E6" s="1">
+        <v>5.8358908792133201E-5</v>
       </c>
       <c r="F6">
         <v>1.71631992716644</v>
@@ -1065,13 +1096,13 @@
         <v>21.5916450685562</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J6">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>5.7</v>
+        <v>8.1537787033484896</v>
       </c>
       <c r="L6">
         <v>1000</v>
@@ -1083,13 +1114,13 @@
         <v>8.11864964103688</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P6">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q6">
-        <v>7.68</v>
+        <v>8.1473118868855092</v>
       </c>
       <c r="R6">
         <v>1000</v>
@@ -1117,14 +1148,14 @@
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>20.367972480117999</v>
+      <c r="C7" s="1">
+        <v>7.6639265146116701E-5</v>
       </c>
       <c r="D7" s="1">
         <v>5.3797420158208098E-5</v>
       </c>
-      <c r="E7">
-        <v>20.588477502974001</v>
+      <c r="E7" s="1">
+        <v>5.6049341975228298E-5</v>
       </c>
       <c r="F7">
         <v>1.1065594130377101</v>
@@ -1136,13 +1167,13 @@
         <v>21.598335872878099</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J7">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K7">
-        <v>11.58</v>
+        <v>8.0720118375623393</v>
       </c>
       <c r="L7">
         <v>1000</v>
@@ -1154,13 +1185,13 @@
         <v>8.1221570669151095</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P7">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q7">
-        <v>10.46</v>
+        <v>8.0926179645969203</v>
       </c>
       <c r="R7">
         <v>1000</v>
@@ -1188,14 +1219,14 @@
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>20.323179398156999</v>
+      <c r="C8" s="1">
+        <v>5.0753796604130397E-5</v>
       </c>
       <c r="D8" s="1">
         <v>7.8702677527520097E-5</v>
       </c>
-      <c r="E8">
-        <v>20.262705671137901</v>
+      <c r="E8" s="1">
+        <v>7.3435480701267099E-5</v>
       </c>
       <c r="F8">
         <v>1.7301148126780701</v>
@@ -1207,13 +1238,13 @@
         <v>21.591011975455899</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J8">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>9.76</v>
+        <v>8.1027566175261594</v>
       </c>
       <c r="L8">
         <v>1000</v>
@@ -1225,13 +1256,13 @@
         <v>8.0326080999616298</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P8">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q8">
-        <v>8.92</v>
+        <v>8.0902614128349803</v>
       </c>
       <c r="R8">
         <v>1000</v>
@@ -1259,14 +1290,14 @@
       <c r="B9">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>20.453087705234601</v>
+      <c r="C9" s="1">
+        <v>6.6579477266959203E-5</v>
       </c>
       <c r="D9" s="1">
         <v>6.3188234634470306E-5</v>
       </c>
-      <c r="E9">
-        <v>20.418456973785698</v>
+      <c r="E9" s="1">
+        <v>5.8586588810971502E-5</v>
       </c>
       <c r="F9">
         <v>1.9404935186027199</v>
@@ -1278,13 +1309,13 @@
         <v>21.603183540364402</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>9.9600000000000009</v>
+        <v>8.0585849728722501</v>
       </c>
       <c r="L9">
         <v>1000</v>
@@ -1296,13 +1327,13 @@
         <v>8.0740943716775302</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q9">
-        <v>7.58</v>
+        <v>8.0616539705156995</v>
       </c>
       <c r="R9">
         <v>1000</v>
@@ -1330,14 +1361,14 @@
       <c r="B10">
         <v>10</v>
       </c>
-      <c r="C10">
-        <v>20.360205043777999</v>
+      <c r="C10" s="1">
+        <v>5.7360095610636798E-5</v>
       </c>
       <c r="D10" s="1">
         <v>5.1479928693698399E-5</v>
       </c>
-      <c r="E10">
-        <v>20.377044547866898</v>
+      <c r="E10" s="1">
+        <v>6.7365525449947201E-5</v>
       </c>
       <c r="F10">
         <v>1.2928949801913501</v>
@@ -1349,13 +1380,13 @@
         <v>21.594924072923</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J10">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K10">
-        <v>6.24</v>
+        <v>8.0195648599769793</v>
       </c>
       <c r="L10">
         <v>1000</v>
@@ -1367,13 +1398,13 @@
         <v>8.0745327999123102</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P10">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q10">
-        <v>7.82</v>
+        <v>8.0731079081492805</v>
       </c>
       <c r="R10">
         <v>1000</v>
@@ -1401,14 +1432,14 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>20.486686499634899</v>
+      <c r="C11" s="1">
+        <v>5.0971317709258503E-5</v>
       </c>
       <c r="D11" s="1">
         <v>5.0088144977866699E-5</v>
       </c>
-      <c r="E11">
-        <v>20.4576185570231</v>
+      <c r="E11" s="1">
+        <v>6.2055797294124901E-5</v>
       </c>
       <c r="F11">
         <v>1.1417648220465599</v>
@@ -1420,13 +1451,13 @@
         <v>21.5696443622505</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J11">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K11">
-        <v>8.8800000000000008</v>
+        <v>8.0548583328766306</v>
       </c>
       <c r="L11">
         <v>1000</v>
@@ -1438,13 +1469,13 @@
         <v>8.14303721159642</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P11">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q11">
-        <v>8.16</v>
+        <v>8.1693977092124701</v>
       </c>
       <c r="R11">
         <v>1000</v>
@@ -1472,14 +1503,14 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12">
-        <v>20.178020345076799</v>
+      <c r="C12" s="1">
+        <v>6.4259516840525695E-5</v>
       </c>
       <c r="D12" s="1">
         <v>5.2749462682743998E-5</v>
       </c>
-      <c r="E12">
-        <v>20.299644542647901</v>
+      <c r="E12" s="1">
+        <v>6.8709649994946805E-5</v>
       </c>
       <c r="F12">
         <v>1.4445265516702099</v>
@@ -1491,13 +1522,13 @@
         <v>21.599726481201099</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J12">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K12">
-        <v>7.32</v>
+        <v>8.1248424398531203</v>
       </c>
       <c r="L12">
         <v>1000</v>
@@ -1509,13 +1540,13 @@
         <v>8.0466378034745407</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P12">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q12">
-        <v>7.42</v>
+        <v>8.0836849893133103</v>
       </c>
       <c r="R12">
         <v>1000</v>
@@ -1543,14 +1574,14 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13">
-        <v>20.229682665532799</v>
+      <c r="C13" s="1">
+        <v>5.6001900159419099E-5</v>
       </c>
       <c r="D13" s="1">
         <v>5.2777785420676698E-5</v>
       </c>
-      <c r="E13">
-        <v>20.234501045393198</v>
+      <c r="E13" s="1">
+        <v>5.1622903342707299E-5</v>
       </c>
       <c r="F13">
         <v>1.0454029987303</v>
@@ -1562,13 +1593,13 @@
         <v>21.6037713286897</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J13">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K13">
-        <v>5.88</v>
+        <v>8.0885076998958692</v>
       </c>
       <c r="L13">
         <v>1000</v>
@@ -1580,13 +1611,13 @@
         <v>8.0545843152298993</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P13">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q13">
-        <v>7.2</v>
+        <v>8.1231435304433592</v>
       </c>
       <c r="R13">
         <v>1000</v>
@@ -1614,14 +1645,14 @@
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14">
-        <v>20.377777562884798</v>
+      <c r="C14" s="1">
+        <v>6.2876326606175996E-5</v>
       </c>
       <c r="D14" s="1">
         <v>4.5196617048492901E-5</v>
       </c>
-      <c r="E14">
-        <v>20.2714009943527</v>
+      <c r="E14" s="1">
+        <v>5.9728897902733199E-5</v>
       </c>
       <c r="F14">
         <v>0.99003562667116896</v>
@@ -1633,13 +1664,13 @@
         <v>21.578789176703498</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J14">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K14">
-        <v>9.3800000000000008</v>
+        <v>8.0203869129171892</v>
       </c>
       <c r="L14">
         <v>1000</v>
@@ -1651,13 +1682,13 @@
         <v>8.1302679892585008</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P14">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q14">
-        <v>9.36</v>
+        <v>8.0875760398969696</v>
       </c>
       <c r="R14">
         <v>1000</v>
@@ -1685,14 +1716,14 @@
       <c r="B15">
         <v>10</v>
       </c>
-      <c r="C15">
-        <v>20.4019240611436</v>
+      <c r="C15" s="1">
+        <v>7.9014480960371003E-5</v>
       </c>
       <c r="D15" s="1">
         <v>4.9431951819389698E-5</v>
       </c>
-      <c r="E15">
-        <v>20.295311821215002</v>
+      <c r="E15" s="1">
+        <v>4.92106533411806E-5</v>
       </c>
       <c r="F15">
         <v>1.3924516914766301</v>
@@ -1704,13 +1735,13 @@
         <v>21.596335769558699</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J15">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K15">
-        <v>7.08</v>
+        <v>8.1130048775141095</v>
       </c>
       <c r="L15">
         <v>1000</v>
@@ -1722,13 +1753,13 @@
         <v>8.0896037704828192</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P15">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q15">
-        <v>11.68</v>
+        <v>8.0871376116621896</v>
       </c>
       <c r="R15">
         <v>1000</v>
@@ -1756,14 +1787,14 @@
       <c r="B16">
         <v>10</v>
       </c>
-      <c r="C16">
-        <v>20.298002232044698</v>
+      <c r="C16" s="1">
+        <v>4.9940421388061597E-5</v>
       </c>
       <c r="D16" s="1">
         <v>6.0393262455438102E-5</v>
       </c>
-      <c r="E16">
-        <v>20.4286632626719</v>
+      <c r="E16" s="1">
+        <v>5.4398272884004201E-5</v>
       </c>
       <c r="F16">
         <v>1.21186523094051</v>
@@ -1775,13 +1806,13 @@
         <v>21.606716771690198</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J16">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K16">
-        <v>8.16</v>
+        <v>8.0819860799035403</v>
       </c>
       <c r="L16">
         <v>1000</v>
@@ -1793,13 +1824,13 @@
         <v>8.0356770976050793</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P16">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q16">
-        <v>7.52</v>
+        <v>8.0963446045925291</v>
       </c>
       <c r="R16">
         <v>1000</v>
@@ -1827,14 +1858,14 @@
       <c r="B17">
         <v>10</v>
       </c>
-      <c r="C17">
-        <v>20.271302424368301</v>
+      <c r="C17" s="1">
+        <v>4.8763288685638099E-5</v>
       </c>
       <c r="D17" s="1">
         <v>6.6067844678219205E-5</v>
       </c>
-      <c r="E17">
-        <v>20.3481583263973</v>
+      <c r="E17" s="1">
+        <v>5.4207198232791799E-5</v>
       </c>
       <c r="F17">
         <v>0.93462351485560902</v>
@@ -1846,13 +1877,13 @@
         <v>21.594023567706898</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J17">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K17">
-        <v>8</v>
+        <v>8.0672439305091199</v>
       </c>
       <c r="L17">
         <v>1000</v>
@@ -1864,13 +1895,13 @@
         <v>8.0792459034361794</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P17">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q17">
-        <v>10.7</v>
+        <v>8.0866443798980594</v>
       </c>
       <c r="R17">
         <v>1000</v>
@@ -1898,14 +1929,14 @@
       <c r="B18">
         <v>10</v>
       </c>
-      <c r="C18">
-        <v>20.429995516045999</v>
+      <c r="C18" s="1">
+        <v>5.3713306503500002E-5</v>
       </c>
       <c r="D18" s="1">
         <v>8.1550627382131994E-5</v>
       </c>
-      <c r="E18">
-        <v>20.441836020863601</v>
+      <c r="E18" s="1">
+        <v>5.0734268196794802E-5</v>
       </c>
       <c r="F18">
         <v>0.96247971465554005</v>
@@ -1917,13 +1948,13 @@
         <v>21.600580049138902</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J18">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K18">
-        <v>7.22</v>
+        <v>8.0359511152518195</v>
       </c>
       <c r="L18">
         <v>1000</v>
@@ -1935,13 +1966,13 @@
         <v>8.0815476516687603</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P18">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q18">
-        <v>10.220000000000001</v>
+        <v>8.1481887433550693</v>
       </c>
       <c r="R18">
         <v>1000</v>
@@ -1969,14 +2000,14 @@
       <c r="B19">
         <v>10</v>
       </c>
-      <c r="C19">
-        <v>20.362984799567801</v>
+      <c r="C19" s="1">
+        <v>5.6110955136023898E-5</v>
       </c>
       <c r="D19" s="1">
         <v>5.1819614431014497E-5</v>
       </c>
-      <c r="E19">
-        <v>20.4081257862934</v>
+      <c r="E19" s="1">
+        <v>6.1308211350752305E-5</v>
       </c>
       <c r="F19">
         <v>1.5019037549266301</v>
@@ -1988,13 +2019,13 @@
         <v>21.592684216136</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J19">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K19">
-        <v>7.18</v>
+        <v>8.1180468022140602</v>
       </c>
       <c r="L19">
         <v>1000</v>
@@ -2006,13 +2037,13 @@
         <v>8.1379404833671192</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P19">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q19">
-        <v>8.98</v>
+        <v>8.1039074916424596</v>
       </c>
       <c r="R19">
         <v>1000</v>
@@ -2040,14 +2071,14 @@
       <c r="B20">
         <v>10</v>
       </c>
-      <c r="C20">
-        <v>20.562250875350301</v>
+      <c r="C20" s="1">
+        <v>5.37897215271421E-5</v>
       </c>
       <c r="D20" s="1">
         <v>6.3032848214295001E-5</v>
       </c>
-      <c r="E20">
-        <v>20.362404995990001</v>
+      <c r="E20" s="1">
+        <v>5.6510915325436098E-5</v>
       </c>
       <c r="F20">
         <v>1.17643430992589</v>
@@ -2059,13 +2090,13 @@
         <v>21.593999853967301</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J20">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K20">
-        <v>9.18</v>
+        <v>8.0683948046254095</v>
       </c>
       <c r="L20">
         <v>1000</v>
@@ -2077,13 +2108,13 @@
         <v>8.0329369211377202</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P20">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q20">
-        <v>10.46</v>
+        <v>8.0849454704883001</v>
       </c>
       <c r="R20">
         <v>1000</v>
@@ -2111,14 +2142,14 @@
       <c r="B21">
         <v>10</v>
       </c>
-      <c r="C21">
-        <v>20.270204132253198</v>
+      <c r="C21" s="1">
+        <v>5.4433100555417697E-5</v>
       </c>
       <c r="D21" s="1">
         <v>5.4119771253358001E-5</v>
       </c>
-      <c r="E21">
-        <v>20.4938680681256</v>
+      <c r="E21" s="1">
+        <v>4.9177471020289599E-5</v>
       </c>
       <c r="F21">
         <v>1.76231136975486</v>
@@ -2130,13 +2161,13 @@
         <v>21.5877371575904</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J21">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K21">
-        <v>6.2</v>
+        <v>8.0522277634679593</v>
       </c>
       <c r="L21">
         <v>1000</v>
@@ -2148,13 +2179,13 @@
         <v>8.1045103304652795</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P21">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q21">
-        <v>10.72</v>
+        <v>8.0364443470159408</v>
       </c>
       <c r="R21">
         <v>1000</v>
@@ -2182,14 +2213,14 @@
       <c r="B22">
         <v>10</v>
       </c>
-      <c r="C22">
-        <v>20.6667984679734</v>
+      <c r="C22" s="1">
+        <v>5.5576410023849798E-5</v>
       </c>
       <c r="D22" s="1">
         <v>5.45932349180766E-5</v>
       </c>
-      <c r="E22">
-        <v>20.366484873384099</v>
+      <c r="E22" s="1">
+        <v>5.4900471230911998E-5</v>
       </c>
       <c r="F22">
         <v>1.68313282285582</v>
@@ -2201,13 +2232,13 @@
         <v>21.5924946459083</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J22">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K22">
-        <v>10.199999999999999</v>
+        <v>8.1324601304323991</v>
       </c>
       <c r="L22">
         <v>1000</v>
@@ -2219,13 +2250,13 @@
         <v>8.0912478763632301</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P22">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q22">
-        <v>10.16</v>
+        <v>8.0478434811201804</v>
       </c>
       <c r="R22">
         <v>1000</v>
@@ -2253,14 +2284,14 @@
       <c r="B23">
         <v>10</v>
       </c>
-      <c r="C23">
-        <v>20.207030712219598</v>
+      <c r="C23" s="1">
+        <v>4.4040434926006998E-5</v>
       </c>
       <c r="D23" s="1">
         <v>6.8811792104828102E-5</v>
       </c>
-      <c r="E23">
-        <v>20.2910888116044</v>
+      <c r="E23" s="1">
+        <v>5.3137103432465598E-5</v>
       </c>
       <c r="F23">
         <v>2.1617224427177</v>
@@ -2272,13 +2303,13 @@
         <v>21.599097870668899</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J23">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K23">
-        <v>6.54</v>
+        <v>8.1156902504521202</v>
       </c>
       <c r="L23">
         <v>1000</v>
@@ -2290,13 +2321,13 @@
         <v>8.0171535046856999</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P23">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q23">
-        <v>7.28</v>
+        <v>8.0953581410642794</v>
       </c>
       <c r="R23">
         <v>1000</v>
@@ -2324,14 +2355,14 @@
       <c r="B24">
         <v>10</v>
       </c>
-      <c r="C24">
-        <v>20.491258433590598</v>
+      <c r="C24" s="1">
+        <v>6.0843430607082597E-5</v>
       </c>
       <c r="D24" s="1">
         <v>5.1097561563739902E-5</v>
       </c>
-      <c r="E24">
-        <v>20.557027083523302</v>
+      <c r="E24" s="1">
+        <v>8.2921561187720901E-5</v>
       </c>
       <c r="F24">
         <v>1.4312944991422101</v>
@@ -2343,13 +2374,13 @@
         <v>21.599962854164101</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J24">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K24">
-        <v>8.9</v>
+        <v>8.1004000657642301</v>
       </c>
       <c r="L24">
         <v>1000</v>
@@ -2361,13 +2392,13 @@
         <v>8.1131144845727992</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P24">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q24">
-        <v>10.1</v>
+        <v>8.1158546610401707</v>
       </c>
       <c r="R24">
         <v>1000</v>
@@ -2395,14 +2426,14 @@
       <c r="B25">
         <v>10</v>
       </c>
-      <c r="C25">
-        <v>20.296567687354401</v>
+      <c r="C25" s="1">
+        <v>5.1047854463082098E-5</v>
       </c>
       <c r="D25" s="1">
         <v>6.3026450054071094E-5</v>
       </c>
-      <c r="E25">
-        <v>20.285297906645798</v>
+      <c r="E25" s="1">
+        <v>5.16069327400892E-5</v>
       </c>
       <c r="F25">
         <v>0.94410947649580401</v>
@@ -2414,13 +2445,13 @@
         <v>21.600400270483501</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J25">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K25">
-        <v>9.56</v>
+        <v>8.0585301693428999</v>
       </c>
       <c r="L25">
         <v>1000</v>
@@ -2432,13 +2463,13 @@
         <v>8.0822052940209304</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P25">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q25">
-        <v>6.22</v>
+        <v>8.11015509398805</v>
       </c>
       <c r="R25">
         <v>1000</v>
@@ -2466,14 +2497,14 @@
       <c r="B26">
         <v>10</v>
       </c>
-      <c r="C26">
-        <v>20.4191706495115</v>
+      <c r="C26" s="1">
+        <v>5.8228590319675499E-5</v>
       </c>
       <c r="D26" s="1">
         <v>7.5528316049844294E-5</v>
       </c>
-      <c r="E26">
-        <v>20.229114438333799</v>
+      <c r="E26" s="1">
+        <v>8.6011262773855098E-5</v>
       </c>
       <c r="F26">
         <v>1.1260893541538299</v>
@@ -2485,13 +2516,13 @@
         <v>21.595902953145799</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J26">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K26">
-        <v>9.48</v>
+        <v>8.0618731846330896</v>
       </c>
       <c r="L26">
         <v>1000</v>
@@ -2503,13 +2534,13 @@
         <v>8.0657094316874005</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P26">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q26">
-        <v>6.32</v>
+        <v>8.1032498492902896</v>
       </c>
       <c r="R26">
         <v>1000</v>
@@ -2536,7 +2567,7 @@
       </c>
       <c r="C29">
         <f>AVERAGE(Table1[[#All],[ DG]])</f>
-        <v>20.374448394056341</v>
+        <v>5.7934133148069797E-5</v>
       </c>
       <c r="D29">
         <f>AVERAGE(Table1[[#All],[ Single]])</f>
@@ -2544,7 +2575,7 @@
       </c>
       <c r="E29">
         <f>AVERAGE(Table1[[#All],[ ODG]])</f>
-        <v>20.375465205411345</v>
+        <v>5.924257136756591E-5</v>
       </c>
       <c r="F29">
         <f>AVERAGE(Table1[[#All],[ Tree]])</f>
@@ -2565,7 +2596,7 @@
       </c>
       <c r="C30">
         <f>_xlfn.STDEV.P(Table1[[#All],[ DG]])</f>
-        <v>0.1099052484062735</v>
+        <v>8.2314118973672404E-6</v>
       </c>
       <c r="D30">
         <f>_xlfn.STDEV.P(Table1[[#All],[ Single]])</f>
@@ -2573,7 +2604,7 @@
       </c>
       <c r="E30">
         <f>_xlfn.STDEV.P(Table1[[#All],[ ODG]])</f>
-        <v>9.2754682648956616E-2</v>
+        <v>9.5217063148959877E-6</v>
       </c>
       <c r="F30">
         <f>_xlfn.STDEV.P(Table1[[#All],[ Tree]])</f>
@@ -2590,22 +2621,61 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="C32">
+        <f>_xlfn.RANK.AVG(C29,$C29:$G29, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:G32" si="0">_xlfn.RANK.AVG(D29,$C29:$G29, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D32">
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C33">
+        <f>_xlfn.RANK.AVG(C30,$C30:$G30, 1)</f>
         <v>1</v>
       </c>
-      <c r="E32">
+      <c r="D33">
+        <f t="shared" ref="D33:G33" si="1">_xlfn.RANK.AVG(D30,$C30:$G30, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C29:G29">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C29:G29">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -2618,7 +2688,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:G29">
+  <conditionalFormatting sqref="C30:G30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2639,10 +2709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9657B4F4-5B63-4996-80EF-3FEA8D5507DB}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2744,13 +2814,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>3162403533.0584998</v>
+        <v>5327657053.1118603</v>
       </c>
       <c r="D2">
         <v>552191175.905936</v>
       </c>
       <c r="E2">
-        <v>1197452490.0564301</v>
+        <v>1067330219.33551</v>
       </c>
       <c r="F2">
         <v>420866724.55948001</v>
@@ -2762,13 +2832,13 @@
         <v>36380436327.976898</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K2">
-        <v>9.06</v>
+        <v>6.8594692400482504</v>
       </c>
       <c r="L2">
         <v>1000</v>
@@ -2780,13 +2850,13 @@
         <v>7.4475256206499703</v>
       </c>
       <c r="O2">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P2">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q2">
-        <v>9.2911999999999999</v>
+        <v>7.6506077348066297</v>
       </c>
       <c r="R2">
         <v>1000</v>
@@ -2815,13 +2885,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>10426684138.056801</v>
+        <v>7024681337.3087502</v>
       </c>
       <c r="D3">
         <v>595973488.73730397</v>
       </c>
       <c r="E3">
-        <v>1347508419.3386099</v>
+        <v>1520698318.7551701</v>
       </c>
       <c r="F3">
         <v>723327596.54727995</v>
@@ -2833,13 +2903,13 @@
         <v>36815821769.192596</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>10.67</v>
+        <v>6.75408487772782</v>
       </c>
       <c r="L3">
         <v>1000</v>
@@ -2851,13 +2921,13 @@
         <v>7.5516523264098199</v>
       </c>
       <c r="O3">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P3">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q3">
-        <v>8.8783999999999992</v>
+        <v>7.5661325966850796</v>
       </c>
       <c r="R3">
         <v>1000</v>
@@ -2886,13 +2956,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>2674855236.6384301</v>
+        <v>5590140712.2975903</v>
       </c>
       <c r="D4">
         <v>505432852.55617398</v>
       </c>
       <c r="E4">
-        <v>1196301140.72142</v>
+        <v>2349265795.7115302</v>
       </c>
       <c r="F4">
         <v>556175425.48129797</v>
@@ -2904,13 +2974,13 @@
         <v>37246650229.836502</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J4">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>9.09</v>
+        <v>6.7325912929049201</v>
       </c>
       <c r="L4">
         <v>1000</v>
@@ -2922,13 +2992,13 @@
         <v>7.6192250780950204</v>
       </c>
       <c r="O4">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q4">
-        <v>9.1047999999999991</v>
+        <v>7.2227071823204403</v>
       </c>
       <c r="R4">
         <v>1000</v>
@@ -2957,13 +3027,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1766198737.20714</v>
+        <v>9210371932.0659409</v>
       </c>
       <c r="D5">
         <v>683527945.01428294</v>
       </c>
       <c r="E5">
-        <v>1348560572.4758699</v>
+        <v>1492786486.4979601</v>
       </c>
       <c r="F5">
         <v>761138623.01485801</v>
@@ -2975,13 +3045,13 @@
         <v>36701946610.656998</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>11.01</v>
+        <v>6.7114266915231902</v>
       </c>
       <c r="L5">
         <v>1000</v>
@@ -2993,13 +3063,13 @@
         <v>7.4969036005918701</v>
       </c>
       <c r="O5">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P5">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q5">
-        <v>9.4632000000000005</v>
+        <v>7.5080662983425404</v>
       </c>
       <c r="R5">
         <v>1000</v>
@@ -3028,13 +3098,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>3902784381.2411299</v>
+        <v>4907340704.1607199</v>
       </c>
       <c r="D6">
         <v>572093782.17365503</v>
       </c>
       <c r="E6">
-        <v>1570282470.5016699</v>
+        <v>1248989308.9355299</v>
       </c>
       <c r="F6">
         <v>513408794.501095</v>
@@ -3046,13 +3116,13 @@
         <v>35899957350.555</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J6">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>11.07</v>
+        <v>6.8639105165040002</v>
       </c>
       <c r="L6">
         <v>1000</v>
@@ -3064,13 +3134,13 @@
         <v>7.5014522935277004</v>
       </c>
       <c r="O6">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P6">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q6">
-        <v>9.3795999999999999</v>
+        <v>7.6022651933701599</v>
       </c>
       <c r="R6">
         <v>1000</v>
@@ -3099,13 +3169,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>5191374839.2020597</v>
+        <v>11222852158.385599</v>
       </c>
       <c r="D7">
         <v>743225819.88678205</v>
       </c>
       <c r="E7">
-        <v>944053590.32776797</v>
+        <v>607604407.34805405</v>
       </c>
       <c r="F7">
         <v>480563629.18445098</v>
@@ -3117,13 +3187,13 @@
         <v>36834358313.901299</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J7">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>8.83</v>
+        <v>6.6982125233029901</v>
       </c>
       <c r="L7">
         <v>1000</v>
@@ -3135,13 +3205,13 @@
         <v>7.4801337206116001</v>
       </c>
       <c r="O7">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P7">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q7">
-        <v>9.2116000000000007</v>
+        <v>7.61160220994475</v>
       </c>
       <c r="R7">
         <v>1000</v>
@@ -3170,13 +3240,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>3487749676.3318501</v>
+        <v>8934328560.2229595</v>
       </c>
       <c r="D8">
         <v>469616664.35404402</v>
       </c>
       <c r="E8">
-        <v>1613469708.7244101</v>
+        <v>1951077302.1637101</v>
       </c>
       <c r="F8">
         <v>647714339.22639</v>
@@ -3188,13 +3258,13 @@
         <v>40668310800.778503</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J8">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K8">
-        <v>10.130000000000001</v>
+        <v>6.7037504112292998</v>
       </c>
       <c r="L8">
         <v>1000</v>
@@ -3206,13 +3276,13 @@
         <v>7.6547925686414198</v>
       </c>
       <c r="O8">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P8">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q8">
-        <v>9.2108000000000008</v>
+        <v>7.4083977900552398</v>
       </c>
       <c r="R8">
         <v>1000</v>
@@ -3241,13 +3311,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>4014000467.6672401</v>
+        <v>6187621644.15207</v>
       </c>
       <c r="D9">
         <v>408924615.97133702</v>
       </c>
       <c r="E9">
-        <v>742469860.40401006</v>
+        <v>1087419735.4890699</v>
       </c>
       <c r="F9">
         <v>373108875.80024499</v>
@@ -3259,13 +3329,13 @@
         <v>37914175879.098602</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J9">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>10.53</v>
+        <v>6.6743612238183996</v>
       </c>
       <c r="L9">
         <v>1000</v>
@@ -3277,13 +3347,13 @@
         <v>7.7171589850386297</v>
       </c>
       <c r="O9">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q9">
-        <v>9.36</v>
+        <v>7.5606077348066298</v>
       </c>
       <c r="R9">
         <v>1000</v>
@@ -3312,13 +3382,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>1768280855.8119299</v>
+        <v>8990094571.9067192</v>
       </c>
       <c r="D10">
         <v>677556547.481143</v>
       </c>
       <c r="E10">
-        <v>1113345215.5274301</v>
+        <v>1167362329.59654</v>
       </c>
       <c r="F10">
         <v>596994408.71273696</v>
@@ -3330,13 +3400,13 @@
         <v>32810620972.847</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J10">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>10.38</v>
+        <v>6.6976642175677101</v>
       </c>
       <c r="L10">
         <v>1000</v>
@@ -3348,13 +3418,13 @@
         <v>7.5565298405217298</v>
       </c>
       <c r="O10">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P10">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q10">
-        <v>9.1224000000000007</v>
+        <v>7.5291160220994398</v>
       </c>
       <c r="R10">
         <v>1000</v>
@@ -3383,13 +3453,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>3493341884.2384801</v>
+        <v>6712541314.2023001</v>
       </c>
       <c r="D11">
         <v>678545553.36374199</v>
       </c>
       <c r="E11">
-        <v>1021945494.65567</v>
+        <v>699050471.31956506</v>
       </c>
       <c r="F11">
         <v>597973593.678725</v>
@@ -3401,13 +3471,13 @@
         <v>36072752016.704201</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J11">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <v>10.130000000000001</v>
+        <v>6.6400921153635197</v>
       </c>
       <c r="L11">
         <v>1000</v>
@@ -3419,13 +3489,13 @@
         <v>7.58053378637584</v>
       </c>
       <c r="O11">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P11">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q11">
-        <v>8.4819999999999993</v>
+        <v>7.6362430939226504</v>
       </c>
       <c r="R11">
         <v>1000</v>
@@ -3454,13 +3524,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>3619929749.85182</v>
+        <v>9024283483.8442993</v>
       </c>
       <c r="D12">
         <v>460660840.20260501</v>
       </c>
       <c r="E12">
-        <v>765351163.76891899</v>
+        <v>1472264121.90043</v>
       </c>
       <c r="F12">
         <v>519369721.968418</v>
@@ -3472,13 +3542,13 @@
         <v>39202689824.094902</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J12">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K12">
-        <v>10.41</v>
+        <v>6.5685930474832697</v>
       </c>
       <c r="L12">
         <v>1000</v>
@@ -3490,13 +3560,13 @@
         <v>7.6455307721817203</v>
       </c>
       <c r="O12">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P12">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q12">
-        <v>9.6219999999999999</v>
+        <v>7.49756906077348</v>
       </c>
       <c r="R12">
         <v>1000</v>
@@ -3525,13 +3595,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>2570918104.9863501</v>
+        <v>10386718621.9751</v>
       </c>
       <c r="D13">
         <v>494488485.40242499</v>
       </c>
       <c r="E13">
-        <v>814643797.09131396</v>
+        <v>1699193950.87345</v>
       </c>
       <c r="F13">
         <v>510412939.45872903</v>
@@ -3543,13 +3613,13 @@
         <v>35316406938.512497</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J13">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K13">
-        <v>10.39</v>
+        <v>6.6635596008334197</v>
       </c>
       <c r="L13">
         <v>1000</v>
@@ -3561,13 +3631,13 @@
         <v>7.6825231544911396</v>
       </c>
       <c r="O13">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P13">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q13">
-        <v>9.2127999999999997</v>
+        <v>7.49646408839779</v>
       </c>
       <c r="R13">
         <v>1000</v>
@@ -3596,13 +3666,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>2104859030.97944</v>
+        <v>12101461118.516899</v>
       </c>
       <c r="D14">
         <v>427829125.207151</v>
       </c>
       <c r="E14">
-        <v>1118540623.8013301</v>
+        <v>1000442259.20482</v>
       </c>
       <c r="F14">
         <v>706413557.60932195</v>
@@ -3614,13 +3684,13 @@
         <v>36148695933.200897</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J14">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K14">
-        <v>10.28</v>
+        <v>6.6126219980260901</v>
       </c>
       <c r="L14">
         <v>1000</v>
@@ -3632,13 +3702,13 @@
         <v>7.6573683345207399</v>
       </c>
       <c r="O14">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P14">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q14">
-        <v>8.9359999999999999</v>
+        <v>7.6150276243093904</v>
       </c>
       <c r="R14">
         <v>1000</v>
@@ -3667,13 +3737,13 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>1280739632.7665401</v>
+        <v>11074794365.005501</v>
       </c>
       <c r="D15">
         <v>448718894.32836503</v>
       </c>
       <c r="E15">
-        <v>942794359.05876899</v>
+        <v>1192307703.29368</v>
       </c>
       <c r="F15">
         <v>494489472.75999302</v>
@@ -3685,13 +3755,13 @@
         <v>35567938641.077003</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J15">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K15">
-        <v>9.42</v>
+        <v>6.6263844719815701</v>
       </c>
       <c r="L15">
         <v>1000</v>
@@ -3703,13 +3773,13 @@
         <v>7.6727133227379802</v>
       </c>
       <c r="O15">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P15">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q15">
-        <v>9.5248000000000008</v>
+        <v>7.5498895027624302</v>
       </c>
       <c r="R15">
         <v>1000</v>
@@ -3738,13 +3808,13 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>2674280084.0855098</v>
+        <v>9135235705.9328308</v>
       </c>
       <c r="D16">
         <v>779039551.14679301</v>
       </c>
       <c r="E16">
-        <v>1067340607.08254</v>
+        <v>1629714596.2681799</v>
       </c>
       <c r="F16">
         <v>616882306.39995599</v>
@@ -3756,13 +3826,13 @@
         <v>39203666510.830399</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J16">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K16">
-        <v>10.119999999999999</v>
+        <v>6.79981357605</v>
       </c>
       <c r="L16">
         <v>1000</v>
@@ -3774,13 +3844,13 @@
         <v>7.5774647887323896</v>
       </c>
       <c r="O16">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P16">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q16">
-        <v>9.0215999999999994</v>
+        <v>7.43917127071823</v>
       </c>
       <c r="R16">
         <v>1000</v>
@@ -3809,13 +3879,13 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>2316892086.1756001</v>
+        <v>7757917139.7523899</v>
       </c>
       <c r="D17">
         <v>480558786.61267602</v>
       </c>
       <c r="E17">
-        <v>1071489274.38972</v>
+        <v>652597050.44658005</v>
       </c>
       <c r="F17">
         <v>501454113.18658698</v>
@@ -3827,13 +3897,13 @@
         <v>35943864497.485001</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J17">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K17">
-        <v>8.74</v>
+        <v>6.8004167123588104</v>
       </c>
       <c r="L17">
         <v>1000</v>
@@ -3845,13 +3915,13 @@
         <v>7.6409820792458998</v>
       </c>
       <c r="O17">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P17">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q17">
-        <v>8.7284000000000006</v>
+        <v>7.5834254143646396</v>
       </c>
       <c r="R17">
         <v>1000</v>
@@ -3880,13 +3950,13 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>3051213729.9660902</v>
+        <v>6661477025.6122599</v>
       </c>
       <c r="D18">
         <v>557171779.84693003</v>
       </c>
       <c r="E18">
-        <v>896705402.91581297</v>
+        <v>1050575083.5914299</v>
       </c>
       <c r="F18">
         <v>583039904.38609803</v>
@@ -3898,13 +3968,13 @@
         <v>35260762028.324699</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J18">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K18">
-        <v>10.9</v>
+        <v>6.7340717183901697</v>
       </c>
       <c r="L18">
         <v>1000</v>
@@ -3916,13 +3986,13 @@
         <v>7.5056721652874403</v>
       </c>
       <c r="O18">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P18">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q18">
-        <v>9.1923999999999992</v>
+        <v>7.5797237569060698</v>
       </c>
       <c r="R18">
         <v>1000</v>
@@ -3951,13 +4021,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>2668595061.2417598</v>
+        <v>6123680006.9773703</v>
       </c>
       <c r="D19">
         <v>781031575.09920299</v>
       </c>
       <c r="E19">
-        <v>808282368.26602697</v>
+        <v>1191034596.4983599</v>
       </c>
       <c r="F19">
         <v>635776332.40990198</v>
@@ -3969,13 +4039,13 @@
         <v>31273480212.987</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J19">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K19">
-        <v>10.46</v>
+        <v>6.6807215703476199</v>
       </c>
       <c r="L19">
         <v>1000</v>
@@ -3987,13 +4057,13 @@
         <v>7.5501178275880898</v>
       </c>
       <c r="O19">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P19">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q19">
-        <v>9.5960000000000001</v>
+        <v>7.5204972375690602</v>
       </c>
       <c r="R19">
         <v>1000</v>
@@ -4022,13 +4092,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>2700252304.5296698</v>
+        <v>4506526277.7386999</v>
       </c>
       <c r="D20">
         <v>721331575.20789695</v>
       </c>
       <c r="E20">
-        <v>769363529.61385798</v>
+        <v>1374064450.7862999</v>
       </c>
       <c r="F20">
         <v>701443346.29313695</v>
@@ -4040,13 +4110,13 @@
         <v>38420523031.472702</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J20">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K20">
-        <v>10.62</v>
+        <v>6.8182366487553399</v>
       </c>
       <c r="L20">
         <v>1000</v>
@@ -4058,13 +4128,13 @@
         <v>7.5751630404997998</v>
       </c>
       <c r="O20">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P20">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q20">
-        <v>9.2292000000000005</v>
+        <v>7.5352486187845296</v>
       </c>
       <c r="R20">
         <v>1000</v>
@@ -4093,13 +4163,13 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>3213835277.6788101</v>
+        <v>10248420805.006599</v>
       </c>
       <c r="D21">
         <v>431807759.04294801</v>
       </c>
       <c r="E21">
-        <v>847993582.06689</v>
+        <v>1383169203.7583699</v>
       </c>
       <c r="F21">
         <v>336299400.21776301</v>
@@ -4111,13 +4181,13 @@
         <v>38970501290.608299</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J21">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K21">
-        <v>9.9</v>
+        <v>6.6482070402456399</v>
       </c>
       <c r="L21">
         <v>1000</v>
@@ -4129,13 +4199,13 @@
         <v>7.6322683180796798</v>
       </c>
       <c r="O21">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P21">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q21">
-        <v>9.3623999999999992</v>
+        <v>7.48734806629834</v>
       </c>
       <c r="R21">
         <v>1000</v>
@@ -4164,13 +4234,13 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>3499415060.6261601</v>
+        <v>13542208294.035</v>
       </c>
       <c r="D22">
         <v>789980516.26039696</v>
       </c>
       <c r="E22">
-        <v>1104456403.7148299</v>
+        <v>560710474.19833803</v>
       </c>
       <c r="F22">
         <v>666619871.468104</v>
@@ -4182,13 +4252,13 @@
         <v>35723946520.387299</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J22">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K22">
-        <v>9.75</v>
+        <v>6.5220418905581701</v>
       </c>
       <c r="L22">
         <v>1000</v>
@@ -4200,13 +4270,13 @@
         <v>7.5568586616978104</v>
       </c>
       <c r="O22">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P22">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q22">
-        <v>9.6723999999999997</v>
+        <v>7.6024861878453001</v>
       </c>
       <c r="R22">
         <v>1000</v>
@@ -4235,13 +4305,13 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>5396200516.4143696</v>
+        <v>4232847144.7316298</v>
       </c>
       <c r="D23">
         <v>796948381.43822098</v>
       </c>
       <c r="E23">
-        <v>757649150.78305197</v>
+        <v>705019958.12876105</v>
       </c>
       <c r="F23">
         <v>548219161.20269704</v>
@@ -4253,13 +4323,13 @@
         <v>33090000425.093899</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J23">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K23">
-        <v>9.99</v>
+        <v>6.7949336550060302</v>
       </c>
       <c r="L23">
         <v>1000</v>
@@ -4271,13 +4341,13 @@
         <v>7.53148462761001</v>
       </c>
       <c r="O23">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P23">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q23">
-        <v>9.8108000000000004</v>
+        <v>7.5067403314917103</v>
       </c>
       <c r="R23">
         <v>1000</v>
@@ -4306,13 +4376,13 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>7467758288.1887703</v>
+        <v>6218983688.75313</v>
       </c>
       <c r="D24">
         <v>475578998.33376002</v>
       </c>
       <c r="E24">
-        <v>1228885680.23298</v>
+        <v>1125082435.5997901</v>
       </c>
       <c r="F24">
         <v>421883664.62539601</v>
@@ -4324,13 +4394,13 @@
         <v>31465343212.853901</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J24">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K24">
-        <v>10.6</v>
+        <v>6.9774098037065402</v>
       </c>
       <c r="L24">
         <v>1000</v>
@@ -4342,13 +4412,13 @@
         <v>7.5702855263878996</v>
       </c>
       <c r="O24">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P24">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q24">
-        <v>9.5608000000000004</v>
+        <v>7.5641436464088398</v>
       </c>
       <c r="R24">
         <v>1000</v>
@@ -4377,13 +4447,13 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>10930272775.432199</v>
+        <v>11163232056.511999</v>
       </c>
       <c r="D25">
         <v>588013063.05804098</v>
       </c>
       <c r="E25">
-        <v>1575541402.4352801</v>
+        <v>1075222562.1071401</v>
       </c>
       <c r="F25">
         <v>382084326.38365501</v>
@@ -4395,13 +4465,13 @@
         <v>35776205244.568298</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J25">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K25">
-        <v>10.16</v>
+        <v>6.6727163066125597</v>
       </c>
       <c r="L25">
         <v>1000</v>
@@ -4413,13 +4483,13 @@
         <v>7.54573354524031</v>
       </c>
       <c r="O25">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P25">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q25">
-        <v>8.3263999999999996</v>
+        <v>7.5380110497237496</v>
       </c>
       <c r="R25">
         <v>1000</v>
@@ -4448,13 +4518,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>5000921326.1183205</v>
+        <v>4855091966.3295403</v>
       </c>
       <c r="D26">
         <v>748192495.89187205</v>
       </c>
       <c r="E26">
-        <v>957832985.49453902</v>
+        <v>1276558947.7432699</v>
       </c>
       <c r="F26">
         <v>519395959.57966202</v>
@@ -4466,13 +4536,13 @@
         <v>38831070661.497803</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="J26">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K26">
-        <v>10.54</v>
+        <v>6.7829257594034402</v>
       </c>
       <c r="L26">
         <v>1000</v>
@@ -4484,13 +4554,13 @@
         <v>7.63062421219926</v>
       </c>
       <c r="O26">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P26">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q26">
-        <v>8.6376000000000008</v>
+        <v>7.4676795580110404</v>
       </c>
       <c r="R26">
         <v>1000</v>
@@ -4517,7 +4587,7 @@
       </c>
       <c r="C28">
         <f>AVERAGE(Table2[[#All],[ DG]])</f>
-        <v>3935350271.1397986</v>
+        <v>8045620307.5415096</v>
       </c>
       <c r="D28">
         <f>AVERAGE(Table2[[#All],[ Single]])</f>
@@ -4525,7 +4595,7 @@
       </c>
       <c r="E28">
         <f>AVERAGE(Table2[[#All],[ ODG]])</f>
-        <v>1072890371.7379658</v>
+        <v>1223181670.7820616</v>
       </c>
       <c r="F28">
         <f>AVERAGE(Table2[[#All],[ Tree]])</f>
@@ -4546,7 +4616,7 @@
       </c>
       <c r="C29">
         <f>_xlfn.STDEV.P(Table2[[#All],[ DG]])</f>
-        <v>2379689346.9423275</v>
+        <v>2584392977.331883</v>
       </c>
       <c r="D29">
         <f>_xlfn.STDEV.P(Table2[[#All],[ Single]])</f>
@@ -4554,7 +4624,7 @@
       </c>
       <c r="E29">
         <f>_xlfn.STDEV.P(Table2[[#All],[ ODG]])</f>
-        <v>258183796.70308557</v>
+        <v>415220229.57726288</v>
       </c>
       <c r="F29">
         <f>_xlfn.STDEV.P(Table2[[#All],[ Tree]])</f>
@@ -4571,18 +4641,45 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="C32">
+        <f>_xlfn.RANK.AVG(C28,$C28:$G28, 1)</f>
         <v>5</v>
       </c>
       <c r="D32">
+        <f t="shared" ref="D32:G32" si="0">_xlfn.RANK.AVG(D28,$C28:$G28, 1)</f>
         <v>3</v>
       </c>
       <c r="E32">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F32">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C33">
+        <f>_xlfn.RANK.AVG(C29,$C29:$G29, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:G33" si="1">_xlfn.RANK.AVG(D29,$C29:$G29, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4608,10 +4705,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095C87F8-508A-410F-8E1A-5CA38BE5FCE6}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4712,13 +4809,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>223.86898466458999</v>
+        <v>208.330086285363</v>
       </c>
       <c r="D2">
         <v>199.998162825929</v>
       </c>
       <c r="E2">
-        <v>220.549172299726</v>
+        <v>204.53588949224601</v>
       </c>
       <c r="F2">
         <v>220.255786367506</v>
@@ -4730,13 +4827,13 @@
         <v>237.09971232065101</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K2">
-        <v>7.3309090909090902</v>
+        <v>7.85406922357343</v>
       </c>
       <c r="L2">
         <v>1000</v>
@@ -4748,13 +4845,13 @@
         <v>8.1280758480846096</v>
       </c>
       <c r="O2">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q2">
-        <v>7.4010769718086697</v>
+        <v>7.6483529411764701</v>
       </c>
       <c r="R2">
         <v>1000</v>
@@ -4783,13 +4880,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>223.07889519216801</v>
+        <v>207.81390278329599</v>
       </c>
       <c r="D3">
         <v>200.02007173568001</v>
       </c>
       <c r="E3">
-        <v>220.93121820034699</v>
+        <v>205.471639775038</v>
       </c>
       <c r="F3">
         <v>220.322378828632</v>
@@ -4801,13 +4898,13 @@
         <v>237.07716999051601</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K3">
-        <v>7.4345454545454501</v>
+        <v>7.8864249160842999</v>
       </c>
       <c r="L3">
         <v>1000</v>
@@ -4819,13 +4916,13 @@
         <v>8.1998136680002194</v>
       </c>
       <c r="O3">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P3">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q3">
-        <v>7.2929996832435799</v>
+        <v>7.6360588235294102</v>
       </c>
       <c r="R3">
         <v>1000</v>
@@ -4854,13 +4951,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>222.91823448820901</v>
+        <v>207.654403859328</v>
       </c>
       <c r="D4">
         <v>199.99788394419801</v>
       </c>
       <c r="E4">
-        <v>220.87307082681599</v>
+        <v>205.07024216970899</v>
       </c>
       <c r="F4">
         <v>220.404765501398</v>
@@ -4872,13 +4969,13 @@
         <v>237.06809652258099</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J4">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K4">
-        <v>7.4018181818181796</v>
+        <v>7.9400759368293601</v>
       </c>
       <c r="L4">
         <v>1000</v>
@@ -4890,13 +4987,13 @@
         <v>8.0984271387077307</v>
       </c>
       <c r="O4">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P4">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q4">
-        <v>7.3022489705416502</v>
+        <v>7.66135294117647</v>
       </c>
       <c r="R4">
         <v>1000</v>
@@ -4925,13 +5022,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>224.20539607480401</v>
+        <v>207.562256855085</v>
       </c>
       <c r="D5">
         <v>199.998941393487</v>
       </c>
       <c r="E5">
-        <v>220.76446368846399</v>
+        <v>204.15291158678301</v>
       </c>
       <c r="F5">
         <v>220.36060369740201</v>
@@ -4943,13 +5040,13 @@
         <v>237.00878948725099</v>
       </c>
       <c r="I5">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>7.7036363636363596</v>
+        <v>7.9448632586804599</v>
       </c>
       <c r="L5">
         <v>1000</v>
@@ -4961,13 +5058,13 @@
         <v>8.1422151586562101</v>
       </c>
       <c r="O5">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q5">
-        <v>7.3116249604054397</v>
+        <v>7.6872352941176398</v>
       </c>
       <c r="R5">
         <v>1000</v>
@@ -4996,13 +5093,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>223.82416999466</v>
+        <v>207.683787692545</v>
       </c>
       <c r="D6">
         <v>199.99868312103899</v>
       </c>
       <c r="E6">
-        <v>220.518648720832</v>
+        <v>204.952469474385</v>
       </c>
       <c r="F6">
         <v>220.45375730451599</v>
@@ -5014,13 +5111,13 @@
         <v>236.99439339378301</v>
       </c>
       <c r="I6">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J6">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>7.5981818181818097</v>
+        <v>7.9281901722335304</v>
       </c>
       <c r="L6">
         <v>1000</v>
@@ -5032,13 +5129,13 @@
         <v>8.1824957527264708</v>
       </c>
       <c r="O6">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P6">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q6">
-        <v>7.2640481469749698</v>
+        <v>7.6754117647058804</v>
       </c>
       <c r="R6">
         <v>1000</v>
@@ -5067,13 +5164,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>224.58433575960299</v>
+        <v>206.61200365737901</v>
       </c>
       <c r="D7">
         <v>199.99905701514299</v>
       </c>
       <c r="E7">
-        <v>221.01457197277199</v>
+        <v>204.71994572105001</v>
       </c>
       <c r="F7">
         <v>220.225718399122</v>
@@ -5085,13 +5182,13 @@
         <v>237.131103187967</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J7">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>7.4345454545454501</v>
+        <v>7.9313817201342598</v>
       </c>
       <c r="L7">
         <v>1000</v>
@@ -5103,13 +5200,13 @@
         <v>8.1616704115744998</v>
       </c>
       <c r="O7">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q7">
-        <v>7.3310738042445296</v>
+        <v>7.61911764705882</v>
       </c>
       <c r="R7">
         <v>1000</v>
@@ -5138,13 +5235,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>223.336272858287</v>
+        <v>207.903476851194</v>
       </c>
       <c r="D8">
         <v>199.998912159203</v>
       </c>
       <c r="E8">
-        <v>221.26162273294</v>
+        <v>204.104258603359</v>
       </c>
       <c r="F8">
         <v>220.42008717495401</v>
@@ -5156,13 +5253,13 @@
         <v>236.999472872437</v>
       </c>
       <c r="I8">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J8">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>7.4636363636363603</v>
+        <v>7.8925879051339898</v>
       </c>
       <c r="L8">
         <v>1000</v>
@@ -5174,13 +5271,13 @@
         <v>8.1578889680495408</v>
       </c>
       <c r="O8">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P8">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q8">
-        <v>7.2674691162496003</v>
+        <v>7.6108823529411698</v>
       </c>
       <c r="R8">
         <v>1000</v>
@@ -5209,13 +5306,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>223.41432595006799</v>
+        <v>207.56828528709801</v>
       </c>
       <c r="D9">
         <v>199.998217327145</v>
       </c>
       <c r="E9">
-        <v>220.876189021583</v>
+        <v>204.825940397783</v>
       </c>
       <c r="F9">
         <v>220.39935827170001</v>
@@ -5227,13 +5324,13 @@
         <v>237.03939758638001</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K9">
-        <v>7.7781818181818103</v>
+        <v>7.9274748252902603</v>
       </c>
       <c r="L9">
         <v>1000</v>
@@ -5245,13 +5342,13 @@
         <v>8.1856195538992704</v>
       </c>
       <c r="O9">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q9">
-        <v>7.4115932847640096</v>
+        <v>7.64229411764705</v>
       </c>
       <c r="R9">
         <v>1000</v>
@@ -5280,13 +5377,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>224.112755193125</v>
+        <v>207.18958010665401</v>
       </c>
       <c r="D10">
         <v>200.01045319006201</v>
       </c>
       <c r="E10">
-        <v>221.09376919768101</v>
+        <v>204.33122191555401</v>
       </c>
       <c r="F10">
         <v>220.35455001242499</v>
@@ -5298,13 +5395,13 @@
         <v>237.131671896618</v>
       </c>
       <c r="I10">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J10">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>7.6872727272727204</v>
+        <v>7.93870026963077</v>
       </c>
       <c r="L10">
         <v>1000</v>
@@ -5316,13 +5413,13 @@
         <v>8.1244588151476904</v>
       </c>
       <c r="O10">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P10">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q10">
-        <v>7.2608172315489297</v>
+        <v>7.6919411764705803</v>
       </c>
       <c r="R10">
         <v>1000</v>
@@ -5351,13 +5448,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>223.917742114753</v>
+        <v>207.66080773192101</v>
       </c>
       <c r="D11">
         <v>199.99865094269401</v>
       </c>
       <c r="E11">
-        <v>221.015780644003</v>
+        <v>203.95815921700401</v>
       </c>
       <c r="F11">
         <v>213.02783538860601</v>
@@ -5369,13 +5466,13 @@
         <v>237.10032788865399</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J11">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>7.3981818181818104</v>
+        <v>7.9277499587299802</v>
       </c>
       <c r="L11">
         <v>1000</v>
@@ -5387,13 +5484,13 @@
         <v>8.1112511645749894</v>
       </c>
       <c r="O11">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P11">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q11">
-        <v>7.2791891035793403</v>
+        <v>7.66</v>
       </c>
       <c r="R11">
         <v>1000</v>
@@ -5422,13 +5519,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>224.89789077232001</v>
+        <v>207.492166767616</v>
       </c>
       <c r="D12">
         <v>200.043396710194</v>
       </c>
       <c r="E12">
-        <v>220.791346284138</v>
+        <v>204.10205441204599</v>
       </c>
       <c r="F12">
         <v>220.25781251687201</v>
@@ -5440,13 +5537,13 @@
         <v>237.106902712167</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J12">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>7.17090909090909</v>
+        <v>7.8438342596159103</v>
       </c>
       <c r="L12">
         <v>1000</v>
@@ -5458,13 +5555,13 @@
         <v>8.0680659834493298</v>
       </c>
       <c r="O12">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P12">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q12">
-        <v>7.2413050364269802</v>
+        <v>7.6331764705882303</v>
       </c>
       <c r="R12">
         <v>1000</v>
@@ -5493,13 +5590,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>224.290985697379</v>
+        <v>207.297294964885</v>
       </c>
       <c r="D13">
         <v>199.99873582331199</v>
       </c>
       <c r="E13">
-        <v>221.15843137389101</v>
+        <v>204.37928369753899</v>
       </c>
       <c r="F13">
         <v>220.41502838877699</v>
@@ -5511,13 +5608,13 @@
         <v>237.07744591200799</v>
       </c>
       <c r="I13">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J13">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>7.60363636363636</v>
+        <v>7.9082154845099799</v>
       </c>
       <c r="L13">
         <v>1000</v>
@@ -5529,13 +5626,13 @@
         <v>8.1435852468899004</v>
       </c>
       <c r="O13">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P13">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q13">
-        <v>7.3659803611023102</v>
+        <v>7.6311176470588196</v>
       </c>
       <c r="R13">
         <v>1000</v>
@@ -5564,13 +5661,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>224.088943304921</v>
+        <v>208.16652792818999</v>
       </c>
       <c r="D14">
         <v>199.99802654477</v>
       </c>
       <c r="E14">
-        <v>220.926748492972</v>
+        <v>204.391513751975</v>
       </c>
       <c r="F14">
         <v>220.270519453915</v>
@@ -5582,13 +5679,13 @@
         <v>237.09414054376199</v>
       </c>
       <c r="I14">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J14">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>7.5072727272727198</v>
+        <v>7.9215869696802903</v>
       </c>
       <c r="L14">
         <v>1000</v>
@@ -5600,13 +5697,13 @@
         <v>8.14561297747575</v>
       </c>
       <c r="O14">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P14">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q14">
-        <v>7.3115616091225801</v>
+        <v>7.6245882352941097</v>
       </c>
       <c r="R14">
         <v>1000</v>
@@ -5635,13 +5732,13 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>224.25907316274899</v>
+        <v>208.00150657453</v>
       </c>
       <c r="D15">
         <v>199.999009011005</v>
       </c>
       <c r="E15">
-        <v>220.72586659904201</v>
+        <v>204.46041410395901</v>
       </c>
       <c r="F15">
         <v>220.34711304587699</v>
@@ -5653,13 +5750,13 @@
         <v>236.986087303342</v>
       </c>
       <c r="I15">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J15">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>8.0054545454545405</v>
+        <v>7.9220271831838396</v>
       </c>
       <c r="L15">
         <v>1000</v>
@@ -5671,13 +5768,13 @@
         <v>8.1504904915876502</v>
       </c>
       <c r="O15">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P15">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q15">
-        <v>7.2601203674374402</v>
+        <v>7.69541176470588</v>
       </c>
       <c r="R15">
         <v>1000</v>
@@ -5706,13 +5803,13 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>222.85284360674299</v>
+        <v>206.69247243174601</v>
       </c>
       <c r="D16">
         <v>200.02297407240599</v>
       </c>
       <c r="E16">
-        <v>221.074240732042</v>
+        <v>204.604662337364</v>
       </c>
       <c r="F16">
         <v>220.428750431119</v>
@@ -5724,13 +5821,13 @@
         <v>237.166467170338</v>
       </c>
       <c r="I16">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J16">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>7.4963636363636299</v>
+        <v>7.9045837231057003</v>
       </c>
       <c r="L16">
         <v>1000</v>
@@ -5742,13 +5839,13 @@
         <v>8.1234723516194407</v>
       </c>
       <c r="O16">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P16">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q16">
-        <v>7.2811529933481101</v>
+        <v>7.6352352941176402</v>
       </c>
       <c r="R16">
         <v>1000</v>
@@ -5777,13 +5874,13 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>224.70188189879499</v>
+        <v>207.374189180944</v>
       </c>
       <c r="D17">
         <v>200.00683918490199</v>
       </c>
       <c r="E17">
-        <v>220.99597097983499</v>
+        <v>204.42071768668299</v>
       </c>
       <c r="F17">
         <v>220.26561019246401</v>
@@ -5795,13 +5892,13 @@
         <v>237.03328648134601</v>
       </c>
       <c r="I17">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J17">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>7.3890909090908998</v>
+        <v>7.9785946183899101</v>
       </c>
       <c r="L17">
         <v>1000</v>
@@ -5813,13 +5910,13 @@
         <v>8.0983175316490303</v>
       </c>
       <c r="O17">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P17">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q17">
-        <v>7.1935381691479199</v>
+        <v>7.6282352941176397</v>
       </c>
       <c r="R17">
         <v>1000</v>
@@ -5848,13 +5945,13 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>223.950308283933</v>
+        <v>208.105598451547</v>
       </c>
       <c r="D18">
         <v>199.998895943457</v>
       </c>
       <c r="E18">
-        <v>220.79866196023599</v>
+        <v>204.060132596778</v>
       </c>
       <c r="F18">
         <v>220.26911404128799</v>
@@ -5866,13 +5963,13 @@
         <v>237.102949348062</v>
       </c>
       <c r="I18">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J18">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>7.1781818181818098</v>
+        <v>7.9132229131128504</v>
       </c>
       <c r="L18">
         <v>1000</v>
@@ -5884,13 +5981,13 @@
         <v>8.1650682303940307</v>
       </c>
       <c r="O18">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P18">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q18">
-        <v>7.2627811213177003</v>
+        <v>7.6454117647058801</v>
       </c>
       <c r="R18">
         <v>1000</v>
@@ -5919,13 +6016,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>224.14668628616599</v>
+        <v>208.045660030091</v>
       </c>
       <c r="D19">
         <v>199.99767097966</v>
       </c>
       <c r="E19">
-        <v>220.86820050505099</v>
+        <v>204.03007134413099</v>
       </c>
       <c r="F19">
         <v>220.489328984797</v>
@@ -5937,13 +6034,13 @@
         <v>237.082754381402</v>
       </c>
       <c r="I19">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J19">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>7.5236363636363599</v>
+        <v>7.9196060089143199</v>
       </c>
       <c r="L19">
         <v>1000</v>
@@ -5955,13 +6052,13 @@
         <v>8.12539047514659</v>
       </c>
       <c r="O19">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q19">
-        <v>7.2568894520114</v>
+        <v>7.7002941176470499</v>
       </c>
       <c r="R19">
         <v>1000</v>
@@ -5990,13 +6087,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>223.18061026655101</v>
+        <v>207.25074078387601</v>
       </c>
       <c r="D20">
         <v>199.99865425289701</v>
       </c>
       <c r="E20">
-        <v>220.69971753351999</v>
+        <v>204.300526748127</v>
       </c>
       <c r="F20">
         <v>220.31162587959</v>
@@ -6008,13 +6105,13 @@
         <v>237.02688027471399</v>
       </c>
       <c r="I20">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J20">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>7.5909090909090899</v>
+        <v>7.9154239806306004</v>
       </c>
       <c r="L20">
         <v>1000</v>
@@ -6026,13 +6123,13 @@
         <v>8.1344330574889003</v>
       </c>
       <c r="O20">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P20">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q20">
-        <v>7.28767817548305</v>
+        <v>7.6950588235294104</v>
       </c>
       <c r="R20">
         <v>1000</v>
@@ -6061,13 +6158,13 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>224.22985302012901</v>
+        <v>206.89328863969601</v>
       </c>
       <c r="D21">
         <v>199.99839919622099</v>
       </c>
       <c r="E21">
-        <v>220.73630165808299</v>
+        <v>204.02776238764599</v>
       </c>
       <c r="F21">
         <v>220.27478055086601</v>
@@ -6079,13 +6176,13 @@
         <v>237.151851740144</v>
       </c>
       <c r="I21">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J21">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>7.3563636363636302</v>
+        <v>7.8369008969350098</v>
       </c>
       <c r="L21">
         <v>1000</v>
@@ -6097,13 +6194,13 @@
         <v>8.1438592645366299</v>
       </c>
       <c r="O21">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P21">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q21">
-        <v>7.2881216344630904</v>
+        <v>7.65547058823529</v>
       </c>
       <c r="R21">
         <v>1000</v>
@@ -6132,13 +6229,13 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>224.54188327157701</v>
+        <v>207.49801627930901</v>
       </c>
       <c r="D22">
         <v>200.00968543248899</v>
       </c>
       <c r="E22">
-        <v>220.63730443555099</v>
+        <v>204.627031899538</v>
       </c>
       <c r="F22">
         <v>220.217585427914</v>
@@ -6150,13 +6247,13 @@
         <v>237.04818057551401</v>
       </c>
       <c r="I22">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J22">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>7.17090909090909</v>
+        <v>7.9343531612832203</v>
       </c>
       <c r="L22">
         <v>1000</v>
@@ -6168,13 +6265,13 @@
         <v>8.1264317422041898</v>
       </c>
       <c r="O22">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P22">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q22">
-        <v>7.2895153626860898</v>
+        <v>7.6661176470588197</v>
       </c>
       <c r="R22">
         <v>1000</v>
@@ -6203,13 +6300,13 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>224.36799195252499</v>
+        <v>207.87174878788301</v>
       </c>
       <c r="D23">
         <v>200.006371850211</v>
       </c>
       <c r="E23">
-        <v>220.77376903793001</v>
+        <v>204.799868292642</v>
       </c>
       <c r="F23">
         <v>220.45344561719699</v>
@@ -6221,13 +6318,13 @@
         <v>236.98545400517901</v>
       </c>
       <c r="I23">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J23">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>7.5054545454545396</v>
+        <v>7.8617179331975997</v>
       </c>
       <c r="L23">
         <v>1000</v>
@@ -6239,13 +6336,13 @@
         <v>8.1635885351016597</v>
       </c>
       <c r="O23">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P23">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q23">
-        <v>7.305796642382</v>
+        <v>7.6580000000000004</v>
       </c>
       <c r="R23">
         <v>1000</v>
@@ -6274,13 +6371,13 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>224.457132939437</v>
+        <v>208.177593878609</v>
       </c>
       <c r="D24">
         <v>199.998761308599</v>
       </c>
       <c r="E24">
-        <v>220.86984077550699</v>
+        <v>204.519994855503</v>
       </c>
       <c r="F24">
         <v>220.330909960284</v>
@@ -6292,13 +6389,13 @@
         <v>236.95581835834901</v>
       </c>
       <c r="I24">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J24">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>7.6381818181818097</v>
+        <v>7.8967699334177004</v>
       </c>
       <c r="L24">
         <v>1000</v>
@@ -6310,13 +6407,13 @@
         <v>8.1439140680659801</v>
       </c>
       <c r="O24">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P24">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q24">
-        <v>7.3514729173265696</v>
+        <v>7.6032352941176402</v>
       </c>
       <c r="R24">
         <v>1000</v>
@@ -6345,13 +6442,13 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>224.26109235541199</v>
+        <v>207.25149351702399</v>
       </c>
       <c r="D25">
         <v>199.99818265079901</v>
       </c>
       <c r="E25">
-        <v>220.68859071118999</v>
+        <v>204.64312991841501</v>
       </c>
       <c r="F25">
         <v>220.20495264273401</v>
@@ -6363,13 +6460,13 @@
         <v>236.97121217151101</v>
       </c>
       <c r="I25">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="J25">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>7.2981818181818099</v>
+        <v>7.8423485390414296</v>
       </c>
       <c r="L25">
         <v>1000</v>
@@ -6381,13 +6478,13 @@
         <v>8.1278018304378801</v>
       </c>
       <c r="O25">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="P25">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q25">
-        <v>7.2498574596135503</v>
+        <v>7.6618823529411699</v>
       </c>
       <c r="R25">
         <v>1000</v>
@@ -6414,7 +6511,7 @@
       </c>
       <c r="C28">
         <f>AVERAGE(Table5[[#All],[ DG]])</f>
-        <v>223.97867871287096</v>
+        <v>207.58737038857535</v>
       </c>
       <c r="D28">
         <f>AVERAGE(Table5[[#All],[ Single]])</f>
@@ -6422,7 +6519,7 @@
       </c>
       <c r="E28">
         <f>AVERAGE(Table5[[#All],[ ODG]])</f>
-        <v>220.86014576600635</v>
+        <v>204.47874343271906</v>
       </c>
       <c r="F28">
         <f>AVERAGE(Table5[[#All],[ Tree]])</f>
@@ -6443,7 +6540,7 @@
       </c>
       <c r="C29">
         <f>_xlfn.STDEV.P(Table5[[#All],[ DG]])</f>
-        <v>0.55795067715382807</v>
+        <v>0.4519744418208636</v>
       </c>
       <c r="D29">
         <f>_xlfn.STDEV.P(Table5[[#All],[ Single]])</f>
@@ -6451,7 +6548,7 @@
       </c>
       <c r="E29">
         <f>_xlfn.STDEV.P(Table5[[#All],[ ODG]])</f>
-        <v>0.1830087126340994</v>
+        <v>0.36661585363621219</v>
       </c>
       <c r="F29">
         <f>_xlfn.STDEV.P(Table5[[#All],[ Tree]])</f>
@@ -6468,19 +6565,46 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="C32">
+        <f>_xlfn.RANK.AVG(C28,$C28:$G28, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:G32" si="0">_xlfn.RANK.AVG(D28,$C28:$G28, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D32">
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C33">
+        <f>_xlfn.RANK.AVG(C29,$C29:$G29, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:G33" si="1">_xlfn.RANK.AVG(D29,$C29:$G29, 1)</f>
         <v>1</v>
       </c>
-      <c r="E32">
+      <c r="E33">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F32">
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
         <v>2</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6505,10 +6629,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7158DF18-8523-48CA-B115-9263308047F0}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6609,13 +6733,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1789567.0576448999</v>
+        <v>1726682.6725158701</v>
       </c>
       <c r="D2">
         <v>2816515.6649435801</v>
       </c>
       <c r="E2">
-        <v>1611935.4637616</v>
+        <v>1538022.8296127999</v>
       </c>
       <c r="F2">
         <v>1994847.62412375</v>
@@ -6627,13 +6751,13 @@
         <v>32196423.740130801</v>
       </c>
       <c r="I2">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>50</v>
       </c>
       <c r="K2">
-        <v>9.0419047619047603</v>
+        <v>4.5170000000000003</v>
       </c>
       <c r="L2">
         <v>1000</v>
@@ -6645,13 +6769,13 @@
         <v>7.0697648928590997</v>
       </c>
       <c r="O2">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q2">
-        <v>9.2423976974095794</v>
+        <v>9.0609374999999996</v>
       </c>
       <c r="R2">
         <v>1000</v>
@@ -6680,13 +6804,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>1683018.40612817</v>
+        <v>1716754.4822386701</v>
       </c>
       <c r="D3">
         <v>2528871.7001124001</v>
       </c>
       <c r="E3">
-        <v>1578454.4377216599</v>
+        <v>1557791.9355309501</v>
       </c>
       <c r="F3">
         <v>1614895.64629773</v>
@@ -6698,13 +6822,13 @@
         <v>33128450.8527155</v>
       </c>
       <c r="I3">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>9.07809523809523</v>
+        <v>4.5095000000000001</v>
       </c>
       <c r="L3">
         <v>1000</v>
@@ -6716,13 +6840,13 @@
         <v>7.1543815421713104</v>
       </c>
       <c r="O3">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q3">
-        <v>9.2970216493555196</v>
+        <v>9.0664999999999996</v>
       </c>
       <c r="R3">
         <v>1000</v>
@@ -6751,13 +6875,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1608513.06554055</v>
+        <v>1549628.36760657</v>
       </c>
       <c r="D4">
         <v>2202529.2760214</v>
       </c>
       <c r="E4">
-        <v>1374618.8546595799</v>
+        <v>1413111.29107755</v>
       </c>
       <c r="F4">
         <v>1476556.0216742901</v>
@@ -6769,13 +6893,13 @@
         <v>34371901.4194763</v>
       </c>
       <c r="I4">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>50</v>
       </c>
       <c r="K4">
-        <v>8.8361904761904704</v>
+        <v>4.6044999999999998</v>
       </c>
       <c r="L4">
         <v>1000</v>
@@ -6787,13 +6911,13 @@
         <v>7.16172521510385</v>
       </c>
       <c r="O4">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q4">
-        <v>9.2758728569640798</v>
+        <v>9.0968750000000007</v>
       </c>
       <c r="R4">
         <v>1000</v>
@@ -6822,13 +6946,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1603078.74091423</v>
+        <v>1729730.57743588</v>
       </c>
       <c r="D5">
         <v>2508336.0098663201</v>
       </c>
       <c r="E5">
-        <v>1568072.97427053</v>
+        <v>1583399.2086710799</v>
       </c>
       <c r="F5">
         <v>1686918.91534395</v>
@@ -6840,13 +6964,13 @@
         <v>34316447.512278698</v>
       </c>
       <c r="I5">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <v>50</v>
       </c>
       <c r="K5">
-        <v>9.0323809523809508</v>
+        <v>4.468</v>
       </c>
       <c r="L5">
         <v>1000</v>
@@ -6858,13 +6982,13 @@
         <v>7.2325861785498899</v>
       </c>
       <c r="O5">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q5">
-        <v>9.3182955825303395</v>
+        <v>9.0838750000000008</v>
       </c>
       <c r="R5">
         <v>1000</v>
@@ -6893,13 +7017,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>1815183.5239502301</v>
+        <v>1651786.15228253</v>
       </c>
       <c r="D6">
         <v>2578913.8563143499</v>
       </c>
       <c r="E6">
-        <v>1647377.0487545701</v>
+        <v>1586558.9882290601</v>
       </c>
       <c r="F6">
         <v>1955149.1586171701</v>
@@ -6911,13 +7035,13 @@
         <v>31853580.064051099</v>
       </c>
       <c r="I6">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>50</v>
       </c>
       <c r="K6">
-        <v>9.1438095238095194</v>
+        <v>4.4405000000000001</v>
       </c>
       <c r="L6">
         <v>1000</v>
@@ -6929,13 +7053,13 @@
         <v>7.2131857291609496</v>
       </c>
       <c r="O6">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q6">
-        <v>9.3352521586785109</v>
+        <v>9.0909999999999993</v>
       </c>
       <c r="R6">
         <v>1000</v>
@@ -6964,13 +7088,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1923179.4501442199</v>
+        <v>1821246.47258052</v>
       </c>
       <c r="D7">
         <v>2719244.3858372201</v>
       </c>
       <c r="E7">
-        <v>1604227.84713466</v>
+        <v>1650162.5049035801</v>
       </c>
       <c r="F7">
         <v>1841451.2204030601</v>
@@ -6982,13 +7106,13 @@
         <v>32430692.636348199</v>
       </c>
       <c r="I7">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J7">
         <v>50</v>
       </c>
       <c r="K7">
-        <v>8.8923809523809503</v>
+        <v>4.3935000000000004</v>
       </c>
       <c r="L7">
         <v>1000</v>
@@ -7000,13 +7124,13 @@
         <v>7.2543979832301204</v>
       </c>
       <c r="O7">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q7">
-        <v>9.2457764985608808</v>
+        <v>9.0410000000000004</v>
       </c>
       <c r="R7">
         <v>1000</v>
@@ -7035,13 +7159,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>1947011.0927245601</v>
+        <v>1815882.8289980399</v>
       </c>
       <c r="D8">
         <v>2808067.6942568999</v>
       </c>
       <c r="E8">
-        <v>1680030.04346248</v>
+        <v>1707669.4512243101</v>
       </c>
       <c r="F8">
         <v>1806656.4863700101</v>
@@ -7053,13 +7177,13 @@
         <v>34001542.660887197</v>
       </c>
       <c r="I8">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <v>50</v>
       </c>
       <c r="K8">
-        <v>8.98</v>
+        <v>4.5979999999999999</v>
       </c>
       <c r="L8">
         <v>1000</v>
@@ -7071,13 +7195,13 @@
         <v>7.2108291773990203</v>
       </c>
       <c r="O8">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q8">
-        <v>9.33819296708797</v>
+        <v>9.0084374999999994</v>
       </c>
       <c r="R8">
         <v>1000</v>
@@ -7106,13 +7230,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>1852181.4199982299</v>
+        <v>1993701.0542671499</v>
       </c>
       <c r="D9">
         <v>2920741.3094442799</v>
       </c>
       <c r="E9">
-        <v>1636514.19307452</v>
+        <v>1617531.9976172301</v>
       </c>
       <c r="F9">
         <v>1902804.4447163499</v>
@@ -7124,13 +7248,13 @@
         <v>31298307.478596602</v>
       </c>
       <c r="I9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>50</v>
       </c>
       <c r="K9">
-        <v>8.8580952380952294</v>
+        <v>4.4414999999999996</v>
       </c>
       <c r="L9">
         <v>1000</v>
@@ -7142,13 +7266,13 @@
         <v>7.2377377103085401</v>
       </c>
       <c r="O9">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q9">
-        <v>9.2900137654861705</v>
+        <v>9.0604375000000008</v>
       </c>
       <c r="R9">
         <v>1000</v>
@@ -7177,13 +7301,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>1710388.47687207</v>
+        <v>1710847.94473663</v>
       </c>
       <c r="D10">
         <v>2381335.1814242299</v>
       </c>
       <c r="E10">
-        <v>1520519.0825050799</v>
+        <v>1435142.1980840999</v>
       </c>
       <c r="F10">
         <v>1536317.3398428501</v>
@@ -7195,13 +7319,13 @@
         <v>32627880.8227656</v>
       </c>
       <c r="I10">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>50</v>
       </c>
       <c r="K10">
-        <v>8.7476190476190396</v>
+        <v>4.4065000000000003</v>
       </c>
       <c r="L10">
         <v>1000</v>
@@ -7213,13 +7337,13 @@
         <v>7.2036499150545197</v>
       </c>
       <c r="O10">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q10">
-        <v>9.2319484419972397</v>
+        <v>8.9761249999999997</v>
       </c>
       <c r="R10">
         <v>1000</v>
@@ -7248,13 +7372,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1932086.7957109101</v>
+        <v>1872653.23748387</v>
       </c>
       <c r="D11">
         <v>2591199.08209327</v>
       </c>
       <c r="E11">
-        <v>1623326.8456277901</v>
+        <v>1644042.13148776</v>
       </c>
       <c r="F11">
         <v>1778355.4438007099</v>
@@ -7266,13 +7390,13 @@
         <v>32688592.993833199</v>
       </c>
       <c r="I11">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J11">
         <v>50</v>
       </c>
       <c r="K11">
-        <v>8.9695238095238103</v>
+        <v>4.5149999999999997</v>
       </c>
       <c r="L11">
         <v>1000</v>
@@ -7284,13 +7408,13 @@
         <v>7.21093878445771</v>
       </c>
       <c r="O11">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q11">
-        <v>9.3045300963584001</v>
+        <v>9.0833124999999999</v>
       </c>
       <c r="R11">
         <v>1000</v>
@@ -7319,13 +7443,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1893482.78418163</v>
+        <v>1737354.3840249199</v>
       </c>
       <c r="D12">
         <v>2565559.15166975</v>
       </c>
       <c r="E12">
-        <v>1502543.48535821</v>
+        <v>1475092.27494204</v>
       </c>
       <c r="F12">
         <v>1704374.47250563</v>
@@ -7337,13 +7461,13 @@
         <v>35834569.877975203</v>
       </c>
       <c r="I12">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J12">
         <v>50</v>
       </c>
       <c r="K12">
-        <v>8.8780952380952307</v>
+        <v>4.3864999999999998</v>
       </c>
       <c r="L12">
         <v>1000</v>
@@ -7355,13 +7479,13 @@
         <v>7.1442428892420597</v>
       </c>
       <c r="O12">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q12">
-        <v>9.3063446377174301</v>
+        <v>9.0956250000000001</v>
       </c>
       <c r="R12">
         <v>1000</v>
@@ -7390,13 +7514,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>1945925.81532892</v>
+        <v>1776151.7871812801</v>
       </c>
       <c r="D13">
         <v>2554057.0097673801</v>
       </c>
       <c r="E13">
-        <v>1651123.3448584699</v>
+        <v>1578568.65503019</v>
       </c>
       <c r="F13">
         <v>1734802.24038288</v>
@@ -7408,13 +7532,13 @@
         <v>29924006.868662499</v>
       </c>
       <c r="I13">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>50</v>
       </c>
       <c r="K13">
-        <v>9.1609523809523807</v>
+        <v>4.4115000000000002</v>
       </c>
       <c r="L13">
         <v>1000</v>
@@ -7426,13 +7550,13 @@
         <v>7.1664383186277103</v>
       </c>
       <c r="O13">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q13">
-        <v>9.3065323488924996</v>
+        <v>9.0463749999999994</v>
       </c>
       <c r="R13">
         <v>1000</v>
@@ -7461,13 +7585,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>1979356.1482333001</v>
+        <v>1778198.3523577901</v>
       </c>
       <c r="D14">
         <v>2893565.6337693799</v>
       </c>
       <c r="E14">
-        <v>1647021.2916291601</v>
+        <v>1639194.6568950801</v>
       </c>
       <c r="F14">
         <v>2032015.8474643801</v>
@@ -7479,13 +7603,13 @@
         <v>32262874.7216032</v>
       </c>
       <c r="I14">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>50</v>
       </c>
       <c r="K14">
-        <v>8.8228571428571403</v>
+        <v>4.4664999999999999</v>
       </c>
       <c r="L14">
         <v>1000</v>
@@ -7497,13 +7621,13 @@
         <v>7.2171863868033101</v>
       </c>
       <c r="O14">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q14">
-        <v>9.2494055812789302</v>
+        <v>9.061375</v>
       </c>
       <c r="R14">
         <v>1000</v>
@@ -7532,13 +7656,13 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>1830972.64994347</v>
+        <v>1837615.4416271499</v>
       </c>
       <c r="D15">
         <v>2395716.3276387001</v>
       </c>
       <c r="E15">
-        <v>1577304.0265941001</v>
+        <v>1613612.4224137899</v>
       </c>
       <c r="F15">
         <v>1706060.51985198</v>
@@ -7550,13 +7674,13 @@
         <v>35554314.985463902</v>
       </c>
       <c r="I15">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <v>50</v>
       </c>
       <c r="K15">
-        <v>9.0047619047618994</v>
+        <v>4.5214999999999996</v>
       </c>
       <c r="L15">
         <v>1000</v>
@@ -7568,13 +7692,13 @@
         <v>7.1823313421384301</v>
       </c>
       <c r="O15">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q15">
-        <v>9.3401952196220694</v>
+        <v>9.0997500000000002</v>
       </c>
       <c r="R15">
         <v>1000</v>
@@ -7603,13 +7727,13 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>1714993.9923869299</v>
+        <v>1769048.1972077801</v>
       </c>
       <c r="D16">
         <v>2274105.8063039701</v>
       </c>
       <c r="E16">
-        <v>1550693.5721374501</v>
+        <v>1621932.2255867301</v>
       </c>
       <c r="F16">
         <v>1638415.3530749099</v>
@@ -7621,13 +7745,13 @@
         <v>33012963.079606101</v>
       </c>
       <c r="I16">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J16">
         <v>50</v>
       </c>
       <c r="K16">
-        <v>9.0276190476190408</v>
+        <v>4.3879999999999999</v>
       </c>
       <c r="L16">
         <v>1000</v>
@@ -7639,13 +7763,13 @@
         <v>7.2054584315229899</v>
       </c>
       <c r="O16">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q16">
-        <v>9.2558503316230691</v>
+        <v>9.0886250000000004</v>
       </c>
       <c r="R16">
         <v>1000</v>
@@ -7674,13 +7798,13 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>1849174.72325056</v>
+        <v>1675755.92928875</v>
       </c>
       <c r="D17">
         <v>2643798.47971548</v>
       </c>
       <c r="E17">
-        <v>1684063.5777052799</v>
+        <v>1502885.22974169</v>
       </c>
       <c r="F17">
         <v>1803990.94391642</v>
@@ -7692,13 +7816,13 @@
         <v>28277668.6707476</v>
       </c>
       <c r="I17">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J17">
         <v>50</v>
       </c>
       <c r="K17">
-        <v>9.0342857142857103</v>
+        <v>4.4744999999999999</v>
       </c>
       <c r="L17">
         <v>1000</v>
@@ -7710,13 +7834,13 @@
         <v>7.1187044445662302</v>
       </c>
       <c r="O17">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q17">
-        <v>9.3233637842572801</v>
+        <v>9.0878125000000001</v>
       </c>
       <c r="R17">
         <v>1000</v>
@@ -7745,13 +7869,13 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>1861019.6257332601</v>
+        <v>1702723.3259888601</v>
       </c>
       <c r="D18">
         <v>2605044.3842127002</v>
       </c>
       <c r="E18">
-        <v>1531075.08748537</v>
+        <v>1438681.3006170299</v>
       </c>
       <c r="F18">
         <v>1625167.9101620901</v>
@@ -7763,13 +7887,13 @@
         <v>33045104.497989301</v>
       </c>
       <c r="I18">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J18">
         <v>50</v>
       </c>
       <c r="K18">
-        <v>9.2419047619047596</v>
+        <v>4.5869999999999997</v>
       </c>
       <c r="L18">
         <v>1000</v>
@@ -7781,13 +7905,13 @@
         <v>7.2467254891214896</v>
       </c>
       <c r="O18">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q18">
-        <v>9.2687398323113506</v>
+        <v>9.0336250000000007</v>
       </c>
       <c r="R18">
         <v>1000</v>
@@ -7816,13 +7940,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>1909274.6674254499</v>
+        <v>1674505.6958703999</v>
       </c>
       <c r="D19">
         <v>2566977.8676181398</v>
       </c>
       <c r="E19">
-        <v>1654559.4257160199</v>
+        <v>1568784.4646417799</v>
       </c>
       <c r="F19">
         <v>1821801.1810910499</v>
@@ -7834,13 +7958,13 @@
         <v>33645653.417285301</v>
       </c>
       <c r="I19">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J19">
         <v>50</v>
       </c>
       <c r="K19">
-        <v>8.8380952380952298</v>
+        <v>4.4779999999999998</v>
       </c>
       <c r="L19">
         <v>1000</v>
@@ -7852,13 +7976,13 @@
         <v>7.1530662574669801</v>
       </c>
       <c r="O19">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q19">
-        <v>9.2686146915279597</v>
+        <v>9.0366874999999993</v>
       </c>
       <c r="R19">
         <v>1000</v>
@@ -7887,13 +8011,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>1860997.3557698601</v>
+        <v>1581758.13933585</v>
       </c>
       <c r="D20">
         <v>2487617.4716328699</v>
       </c>
       <c r="E20">
-        <v>1653950.3928694199</v>
+        <v>1613286.0185284801</v>
       </c>
       <c r="F20">
         <v>1660672.0735144101</v>
@@ -7905,13 +8029,13 @@
         <v>32521959.3336397</v>
       </c>
       <c r="I20">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J20">
         <v>50</v>
       </c>
       <c r="K20">
-        <v>9.0447619047619003</v>
+        <v>4.6020000000000003</v>
       </c>
       <c r="L20">
         <v>1000</v>
@@ -7923,13 +8047,13 @@
         <v>7.2393270126596097</v>
       </c>
       <c r="O20">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q20">
-        <v>9.2708046552371393</v>
+        <v>9.1629375</v>
       </c>
       <c r="R20">
         <v>1000</v>
@@ -7958,13 +8082,13 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>1858199.04987776</v>
+        <v>1793542.7980781</v>
       </c>
       <c r="D21">
         <v>2485258.6683235201</v>
       </c>
       <c r="E21">
-        <v>1729379.53718913</v>
+        <v>1617035.56878247</v>
       </c>
       <c r="F21">
         <v>1809008.75746916</v>
@@ -7976,13 +8100,13 @@
         <v>36539640.682600103</v>
       </c>
       <c r="I21">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J21">
         <v>50</v>
       </c>
       <c r="K21">
-        <v>9.1761904761904702</v>
+        <v>4.5505000000000004</v>
       </c>
       <c r="L21">
         <v>1000</v>
@@ -7994,13 +8118,13 @@
         <v>7.1178275880966702</v>
       </c>
       <c r="O21">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q21">
-        <v>9.3274308597171807</v>
+        <v>9.0471249999999994</v>
       </c>
       <c r="R21">
         <v>1000</v>
@@ -8029,13 +8153,13 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>1908722.2596426699</v>
+        <v>1941215.7812977999</v>
       </c>
       <c r="D22">
         <v>2627540.4080197602</v>
       </c>
       <c r="E22">
-        <v>1623273.4479082399</v>
+        <v>1696077.47052793</v>
       </c>
       <c r="F22">
         <v>1703462.3325853499</v>
@@ -8047,13 +8171,13 @@
         <v>31177213.007543098</v>
       </c>
       <c r="I22">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J22">
         <v>50</v>
       </c>
       <c r="K22">
-        <v>9.0076190476190394</v>
+        <v>4.4044999999999996</v>
       </c>
       <c r="L22">
         <v>1000</v>
@@ -8065,13 +8189,13 @@
         <v>7.1773442209678304</v>
       </c>
       <c r="O22">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q22">
-        <v>9.2499687148041492</v>
+        <v>8.9961874999999996</v>
       </c>
       <c r="R22">
         <v>1000</v>
@@ -8100,13 +8224,13 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>1945232.3693023301</v>
+        <v>1870776.36339251</v>
       </c>
       <c r="D23">
         <v>2796914.7297318699</v>
       </c>
       <c r="E23">
-        <v>1729462.84671361</v>
+        <v>1644329.34907496</v>
       </c>
       <c r="F23">
         <v>1905322.65094472</v>
@@ -8118,13 +8242,13 @@
         <v>34515162.462091997</v>
       </c>
       <c r="I23">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J23">
         <v>50</v>
       </c>
       <c r="K23">
-        <v>8.7638095238095204</v>
+        <v>4.5015000000000001</v>
       </c>
       <c r="L23">
         <v>1000</v>
@@ -8136,13 +8260,13 @@
         <v>7.2374636926617999</v>
       </c>
       <c r="O23">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q23">
-        <v>9.28369415592541</v>
+        <v>9.0981874999999999</v>
       </c>
       <c r="R23">
         <v>1000</v>
@@ -8171,13 +8295,13 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>1652414.96365929</v>
+        <v>1713353.40869958</v>
       </c>
       <c r="D24">
         <v>2433594.7141880998</v>
       </c>
       <c r="E24">
-        <v>1350774.3421364799</v>
+        <v>1524244.7734597099</v>
       </c>
       <c r="F24">
         <v>1527361.4916085</v>
@@ -8189,13 +8313,13 @@
         <v>32351162.832418598</v>
       </c>
       <c r="I24">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>50</v>
       </c>
       <c r="K24">
-        <v>9.0514285714285698</v>
+        <v>4.4429999999999996</v>
       </c>
       <c r="L24">
         <v>1000</v>
@@ -8207,13 +8331,13 @@
         <v>7.2002520962349896</v>
       </c>
       <c r="O24">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q24">
-        <v>9.3050306594919192</v>
+        <v>9.0008125000000003</v>
       </c>
       <c r="R24">
         <v>1000</v>
@@ -8242,13 +8366,13 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>1740587.98057624</v>
+        <v>1974975.3318290701</v>
       </c>
       <c r="D25">
         <v>2504261.4632428498</v>
       </c>
       <c r="E25">
-        <v>1635214.2685674501</v>
+        <v>1605419.4157426399</v>
       </c>
       <c r="F25">
         <v>1635405.54327734</v>
@@ -8260,13 +8384,13 @@
         <v>29413404.566628899</v>
       </c>
       <c r="I25">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>50</v>
       </c>
       <c r="K25">
-        <v>9.0161904761904701</v>
+        <v>4.4290000000000003</v>
       </c>
       <c r="L25">
         <v>1000</v>
@@ -8278,13 +8402,13 @@
         <v>7.1469830657094304</v>
       </c>
       <c r="O25">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q25">
-        <v>9.28006507320735</v>
+        <v>9.0383750000000003</v>
       </c>
       <c r="R25">
         <v>1000</v>
@@ -8313,13 +8437,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>1852817.5560351301</v>
+        <v>1784145.0895160499</v>
       </c>
       <c r="D26">
         <v>2623411.7020958499</v>
       </c>
       <c r="E26">
-        <v>1463964.95611687</v>
+        <v>1495924.53200524</v>
       </c>
       <c r="F26">
         <v>1779152.2000186101</v>
@@ -8331,13 +8455,13 @@
         <v>34633936.138215899</v>
       </c>
       <c r="I26">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J26">
         <v>50</v>
       </c>
       <c r="K26">
-        <v>8.9314285714285706</v>
+        <v>4.5155000000000003</v>
       </c>
       <c r="L26">
         <v>1000</v>
@@ -8349,13 +8473,13 @@
         <v>7.2323669644325097</v>
       </c>
       <c r="O26">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="P26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q26">
-        <v>9.2857589788512005</v>
+        <v>9.0079999999999991</v>
       </c>
       <c r="R26">
         <v>1000</v>
@@ -8382,7 +8506,7 @@
       </c>
       <c r="C29">
         <f>AVERAGE(Table4[[#All],[ DG]])</f>
-        <v>1826695.1988389946</v>
+        <v>1768001.3526336646</v>
       </c>
       <c r="D29">
         <f>AVERAGE(Table4[[#All],[ Single]])</f>
@@ -8390,7 +8514,7 @@
       </c>
       <c r="E29">
         <f>AVERAGE(Table4[[#All],[ ODG]])</f>
-        <v>1593179.215758309</v>
+        <v>1574740.0357771274</v>
       </c>
       <c r="F29">
         <f>AVERAGE(Table4[[#All],[ Tree]])</f>
@@ -8411,7 +8535,7 @@
       </c>
       <c r="C30">
         <f>_xlfn.STDEV.P(Table4[[#All],[ DG]])</f>
-        <v>108301.50223556707</v>
+        <v>107095.51807900815</v>
       </c>
       <c r="D30">
         <f>_xlfn.STDEV.P(Table4[[#All],[ Single]])</f>
@@ -8419,7 +8543,7 @@
       </c>
       <c r="E30">
         <f>_xlfn.STDEV.P(Table4[[#All],[ ODG]])</f>
-        <v>93593.836433515185</v>
+        <v>77857.476921929643</v>
       </c>
       <c r="F30">
         <f>_xlfn.STDEV.P(Table4[[#All],[ Tree]])</f>
@@ -8436,19 +8560,46 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C33">
+        <f>_xlfn.RANK.AVG(C29,$C29:$G29, 1)</f>
         <v>4</v>
       </c>
       <c r="D33">
+        <f t="shared" ref="D33:G33" si="0">_xlfn.RANK.AVG(D29,$C29:$G29, 1)</f>
         <v>5</v>
       </c>
       <c r="E33">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F33">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G33">
+        <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C34">
+        <f>_xlfn.RANK.AVG(C30,$C30:$G30, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:G34" si="1">_xlfn.RANK.AVG(D30,$C30:$G30, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -8473,10 +8624,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4172884-1FB4-45E7-9E89-9F7D79A05A84}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8578,13 +8729,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>122422058327.01401</v>
+        <v>16516443580.4097</v>
       </c>
       <c r="D2">
         <v>65.948922562696893</v>
       </c>
       <c r="E2">
-        <v>2023017.7079911099</v>
+        <v>151519.506321856</v>
       </c>
       <c r="F2">
         <v>14039.8476426004</v>
@@ -8596,13 +8747,13 @@
         <v>6657790014815.8096</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J2">
         <v>50</v>
       </c>
       <c r="K2">
-        <v>10.0215384615384</v>
+        <v>7.7638345864661602</v>
       </c>
       <c r="L2">
         <v>1000</v>
@@ -8620,7 +8771,7 @@
         <v>14</v>
       </c>
       <c r="Q2">
-        <v>9.7869176727371894</v>
+        <v>9.7890321260486992</v>
       </c>
       <c r="R2">
         <v>1000</v>
@@ -8649,13 +8800,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>124559522129.472</v>
+        <v>4293368233.7954702</v>
       </c>
       <c r="D3">
         <v>66.172184779645406</v>
       </c>
       <c r="E3">
-        <v>3081371.8629592801</v>
+        <v>3049314.8995334399</v>
       </c>
       <c r="F3">
         <v>10183.550762943099</v>
@@ -8667,13 +8818,13 @@
         <v>6994306983379.54</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J3">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>10.270769230769201</v>
+        <v>7.5985714285714199</v>
       </c>
       <c r="L3">
         <v>1000</v>
@@ -8691,7 +8842,7 @@
         <v>14</v>
       </c>
       <c r="Q3">
-        <v>9.7738217038401203</v>
+        <v>9.8158379373848899</v>
       </c>
       <c r="R3">
         <v>1000</v>
@@ -8720,13 +8871,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>203071639727.79901</v>
+        <v>731854253.59451997</v>
       </c>
       <c r="D4">
         <v>65.323997679130798</v>
       </c>
       <c r="E4">
-        <v>18876464.389477801</v>
+        <v>40093.379984527703</v>
       </c>
       <c r="F4">
         <v>18677.142865462702</v>
@@ -8738,13 +8889,13 @@
         <v>7096743239145.1797</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J4">
         <v>50</v>
       </c>
       <c r="K4">
-        <v>10.273846153846099</v>
+        <v>7.9289473684210501</v>
       </c>
       <c r="L4">
         <v>1000</v>
@@ -8762,7 +8913,7 @@
         <v>14</v>
       </c>
       <c r="Q4">
-        <v>9.7609303594570598</v>
+        <v>9.7517222563262997</v>
       </c>
       <c r="R4">
         <v>1000</v>
@@ -8791,13 +8942,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>318849660888.72998</v>
+        <v>330080077.14570898</v>
       </c>
       <c r="D5">
         <v>66.494036054249804</v>
       </c>
       <c r="E5">
-        <v>111008.821520977</v>
+        <v>2585594.2945896201</v>
       </c>
       <c r="F5">
         <v>12339.852345826301</v>
@@ -8809,13 +8960,13 @@
         <v>7122214833173.9502</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J5">
         <v>50</v>
       </c>
       <c r="K5">
-        <v>10.4938461538461</v>
+        <v>7.8031578947368399</v>
       </c>
       <c r="L5">
         <v>1000</v>
@@ -8833,7 +8984,7 @@
         <v>14</v>
       </c>
       <c r="Q5">
-        <v>9.7944205715844692</v>
+        <v>9.7945569879271499</v>
       </c>
       <c r="R5">
         <v>1000</v>
@@ -8862,13 +9013,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>297459843403.82898</v>
+        <v>4031517866.5966702</v>
       </c>
       <c r="D6">
         <v>120.888887870519</v>
       </c>
       <c r="E6">
-        <v>743711.68841017701</v>
+        <v>706164.16434430401</v>
       </c>
       <c r="F6">
         <v>12685.153711341</v>
@@ -8880,13 +9031,13 @@
         <v>6666903031697.96</v>
       </c>
       <c r="I6">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J6">
         <v>50</v>
       </c>
       <c r="K6">
-        <v>10.376923076922999</v>
+        <v>7.6856390977443603</v>
       </c>
       <c r="L6">
         <v>1000</v>
@@ -8904,7 +9055,7 @@
         <v>14</v>
       </c>
       <c r="Q6">
-        <v>9.7088193165541199</v>
+        <v>9.7944205715844692</v>
       </c>
       <c r="R6">
         <v>1000</v>
@@ -8933,13 +9084,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>202421406993.04901</v>
+        <v>6018376253.65483</v>
       </c>
       <c r="D7">
         <v>66.584170030726</v>
       </c>
       <c r="E7">
-        <v>1968196.0731041301</v>
+        <v>235351.37697031401</v>
       </c>
       <c r="F7">
         <v>10360.0587913117</v>
@@ -8951,13 +9102,13 @@
         <v>6772593727744.54</v>
       </c>
       <c r="I7">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J7">
         <v>50</v>
       </c>
       <c r="K7">
-        <v>10.3107692307692</v>
+        <v>7.8418796992481203</v>
       </c>
       <c r="L7">
         <v>1000</v>
@@ -8975,7 +9126,7 @@
         <v>14</v>
       </c>
       <c r="Q7">
-        <v>9.7427187777095696</v>
+        <v>9.78882750153468</v>
       </c>
       <c r="R7">
         <v>1000</v>
@@ -9004,13 +9155,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>269437510131.84601</v>
+        <v>3070242432.92838</v>
       </c>
       <c r="D8">
         <v>67.415191795379201</v>
       </c>
       <c r="E8">
-        <v>262601723.66299501</v>
+        <v>16978483.4803169</v>
       </c>
       <c r="F8">
         <v>9784.0122693908597</v>
@@ -9022,13 +9173,13 @@
         <v>6782532721092.6699</v>
       </c>
       <c r="I8">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J8">
         <v>50</v>
       </c>
       <c r="K8">
-        <v>10.4184615384615</v>
+        <v>7.9298496240601501</v>
       </c>
       <c r="L8">
         <v>1000</v>
@@ -9046,7 +9197,7 @@
         <v>14</v>
       </c>
       <c r="Q8">
-        <v>9.7537685014664692</v>
+        <v>9.7875997544505804</v>
       </c>
       <c r="R8">
         <v>1000</v>
@@ -9075,13 +9226,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>208004889555.827</v>
+        <v>960940447.910326</v>
       </c>
       <c r="D9">
         <v>120.535829017285</v>
       </c>
       <c r="E9">
-        <v>24769701.469815802</v>
+        <v>335066.84360487002</v>
       </c>
       <c r="F9">
         <v>12366.9820449259</v>
@@ -9093,13 +9244,13 @@
         <v>6495603672389.1602</v>
       </c>
       <c r="I9">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J9">
         <v>50</v>
       </c>
       <c r="K9">
-        <v>9.9615384615384599</v>
+        <v>7.8075939849624003</v>
       </c>
       <c r="L9">
         <v>1000</v>
@@ -9117,7 +9268,7 @@
         <v>14</v>
       </c>
       <c r="Q9">
-        <v>9.7210967873951297</v>
+        <v>9.7451742718777705</v>
       </c>
       <c r="R9">
         <v>1000</v>
@@ -9146,13 +9297,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>180297071699.40399</v>
+        <v>5379700923.0284204</v>
       </c>
       <c r="D10">
         <v>66.865846668412402</v>
       </c>
       <c r="E10">
-        <v>1859631.6887914799</v>
+        <v>3227082.7841856298</v>
       </c>
       <c r="F10">
         <v>18107.895294942598</v>
@@ -9164,13 +9315,13 @@
         <v>6896535362240.1602</v>
       </c>
       <c r="I10">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J10">
         <v>50</v>
       </c>
       <c r="K10">
-        <v>10.432307692307599</v>
+        <v>7.8759398496240598</v>
       </c>
       <c r="L10">
         <v>1000</v>
@@ -9188,7 +9339,7 @@
         <v>14</v>
       </c>
       <c r="Q10">
-        <v>9.7502898847281898</v>
+        <v>9.7763454061796597</v>
       </c>
       <c r="R10">
         <v>1000</v>
@@ -9217,13 +9368,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>160848292250.203</v>
+        <v>5988362950.6299496</v>
       </c>
       <c r="D11">
         <v>65.246657919612204</v>
       </c>
       <c r="E11">
-        <v>649351.58896694495</v>
+        <v>2311462.0118792299</v>
       </c>
       <c r="F11">
         <v>11153.2986403906</v>
@@ -9235,13 +9386,13 @@
         <v>6793505007975.4502</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J11">
         <v>50</v>
       </c>
       <c r="K11">
-        <v>10.4892307692307</v>
+        <v>7.98413533834586</v>
       </c>
       <c r="L11">
         <v>1000</v>
@@ -9259,7 +9410,7 @@
         <v>14</v>
       </c>
       <c r="Q11">
-        <v>9.7666598458495297</v>
+        <v>9.7891685423913692</v>
       </c>
       <c r="R11">
         <v>1000</v>
@@ -9288,13 +9439,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>471668618776.05499</v>
+        <v>10915709866.7694</v>
       </c>
       <c r="D12">
         <v>67.740830039980295</v>
       </c>
       <c r="E12">
-        <v>728842.717803412</v>
+        <v>2291833.3095498001</v>
       </c>
       <c r="F12">
         <v>9280.4163161042998</v>
@@ -9306,13 +9457,13 @@
         <v>6625887443135.7305</v>
       </c>
       <c r="I12">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J12">
         <v>50</v>
       </c>
       <c r="K12">
-        <v>10.264615384615301</v>
+        <v>7.4247368421052604</v>
       </c>
       <c r="L12">
         <v>1000</v>
@@ -9330,7 +9481,7 @@
         <v>14</v>
       </c>
       <c r="Q12">
-        <v>9.7136620967191796</v>
+        <v>9.7972171066093701</v>
       </c>
       <c r="R12">
         <v>1000</v>
@@ -9359,13 +9510,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>278063818175.79602</v>
+        <v>4441250512.5734701</v>
       </c>
       <c r="D13">
         <v>34.477114063901197</v>
       </c>
       <c r="E13">
-        <v>3348828.2256792998</v>
+        <v>17495811.509823099</v>
       </c>
       <c r="F13">
         <v>12055.871733502599</v>
@@ -9377,13 +9528,13 @@
         <v>6626508261201.8896</v>
       </c>
       <c r="I13">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J13">
         <v>50</v>
       </c>
       <c r="K13">
-        <v>10.1338461538461</v>
+        <v>7.8389473684210502</v>
       </c>
       <c r="L13">
         <v>1000</v>
@@ -9401,7 +9552,7 @@
         <v>14</v>
       </c>
       <c r="Q13">
-        <v>9.8086078712229696</v>
+        <v>9.7525407543823697</v>
       </c>
       <c r="R13">
         <v>1000</v>
@@ -9430,13 +9581,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>133225331374.16901</v>
+        <v>585656462.31494498</v>
       </c>
       <c r="D14">
         <v>92.816823294330703</v>
       </c>
       <c r="E14">
-        <v>28693988.556483202</v>
+        <v>1895496.45125698</v>
       </c>
       <c r="F14">
         <v>7966.5379947031697</v>
@@ -9448,13 +9599,13 @@
         <v>6850793807318.6104</v>
       </c>
       <c r="I14">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J14">
         <v>50</v>
       </c>
       <c r="K14">
-        <v>10.356923076923</v>
+        <v>7.8148120300751804</v>
       </c>
       <c r="L14">
         <v>1000</v>
@@ -9472,7 +9623,7 @@
         <v>14</v>
       </c>
       <c r="Q14">
-        <v>9.7201418729963809</v>
+        <v>9.7449696473637495</v>
       </c>
       <c r="R14">
         <v>1000</v>
@@ -9501,13 +9652,13 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>254133556921.99899</v>
+        <v>3237268790.6752501</v>
       </c>
       <c r="D15">
         <v>65.724542994729205</v>
       </c>
       <c r="E15">
-        <v>1486979670.9692299</v>
+        <v>81150.203394409298</v>
       </c>
       <c r="F15">
         <v>11984.8461194842</v>
@@ -9519,13 +9670,13 @@
         <v>6942195131345.6299</v>
       </c>
       <c r="I15">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J15">
         <v>50</v>
       </c>
       <c r="K15">
-        <v>10.170769230769199</v>
+        <v>7.69300751879699</v>
       </c>
       <c r="L15">
         <v>1000</v>
@@ -9543,7 +9694,7 @@
         <v>14</v>
       </c>
       <c r="Q15">
-        <v>9.7177545869995203</v>
+        <v>9.6965418457131101</v>
       </c>
       <c r="R15">
         <v>1000</v>
@@ -9572,13 +9723,13 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>420504624195.32703</v>
+        <v>2961730861.56457</v>
       </c>
       <c r="D16">
         <v>64.466843865789102</v>
       </c>
       <c r="E16">
-        <v>27029492.879640602</v>
+        <v>24767055.765194301</v>
       </c>
       <c r="F16">
         <v>14206.8313062784</v>
@@ -9590,13 +9741,13 @@
         <v>6913468723984.9004</v>
       </c>
       <c r="I16">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J16">
         <v>50</v>
       </c>
       <c r="K16">
-        <v>10.0492307692307</v>
+        <v>8.0413533834586399</v>
       </c>
       <c r="L16">
         <v>1000</v>
@@ -9614,7 +9765,7 @@
         <v>14</v>
       </c>
       <c r="Q16">
-        <v>9.7279176045290203</v>
+        <v>9.7343973808062199</v>
       </c>
       <c r="R16">
         <v>1000</v>
@@ -9643,13 +9794,13 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>171549813223.18301</v>
+        <v>6614875589.7154799</v>
       </c>
       <c r="D17">
         <v>66.779571021551206</v>
       </c>
       <c r="E17">
-        <v>27056950.042631</v>
+        <v>141573.19538759399</v>
       </c>
       <c r="F17">
         <v>12505.362575676199</v>
@@ -9661,13 +9812,13 @@
         <v>6778826076502.9404</v>
       </c>
       <c r="I17">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J17">
         <v>50</v>
       </c>
       <c r="K17">
-        <v>10.038461538461499</v>
+        <v>7.7079699248120299</v>
       </c>
       <c r="L17">
         <v>1000</v>
@@ -9685,7 +9836,7 @@
         <v>14</v>
       </c>
       <c r="Q17">
-        <v>9.7361707932610297</v>
+        <v>9.7149580519746195</v>
       </c>
       <c r="R17">
         <v>1000</v>
@@ -9714,13 +9865,13 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>196321087290.58899</v>
+        <v>7820843003.1449604</v>
       </c>
       <c r="D18">
         <v>68.109902319693504</v>
       </c>
       <c r="E18">
-        <v>40014653.231324002</v>
+        <v>348238.27387202502</v>
       </c>
       <c r="F18">
         <v>13005.4352428149</v>
@@ -9732,13 +9883,13 @@
         <v>6878270555039.6699</v>
       </c>
       <c r="I18">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J18">
         <v>50</v>
       </c>
       <c r="K18">
-        <v>10.2584615384615</v>
+        <v>7.5838345864661596</v>
       </c>
       <c r="L18">
         <v>1000</v>
@@ -9756,7 +9907,7 @@
         <v>14</v>
       </c>
       <c r="Q18">
-        <v>9.7316008457813208</v>
+        <v>9.7936702816997396</v>
       </c>
       <c r="R18">
         <v>1000</v>
@@ -9785,13 +9936,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>204204933382.284</v>
+        <v>2420829399.9577298</v>
       </c>
       <c r="D19">
         <v>67.122554344253302</v>
       </c>
       <c r="E19">
-        <v>84347.017139237898</v>
+        <v>27863244.225923698</v>
       </c>
       <c r="F19">
         <v>9593.9753987731692</v>
@@ -9803,13 +9954,13 @@
         <v>6689751329712.3496</v>
       </c>
       <c r="I19">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J19">
         <v>50</v>
       </c>
       <c r="K19">
-        <v>10.2538461538461</v>
+        <v>7.9390977443609003</v>
       </c>
       <c r="L19">
         <v>1000</v>
@@ -9827,7 +9978,7 @@
         <v>14</v>
       </c>
       <c r="Q19">
-        <v>9.7643407680240095</v>
+        <v>9.6930632289748306</v>
       </c>
       <c r="R19">
         <v>1000</v>
@@ -9856,13 +10007,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>141903812081.979</v>
+        <v>12409450399.612301</v>
       </c>
       <c r="D20">
         <v>65.0848724007421</v>
       </c>
       <c r="E20">
-        <v>108339.93375382401</v>
+        <v>26024.2478906828</v>
       </c>
       <c r="F20">
         <v>8952.30805405313</v>
@@ -9874,13 +10025,13 @@
         <v>7027168159237.7998</v>
       </c>
       <c r="I20">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J20">
         <v>50</v>
       </c>
       <c r="K20">
-        <v>10.250769230769199</v>
+        <v>7.8093233082706703</v>
       </c>
       <c r="L20">
         <v>1000</v>
@@ -9898,7 +10049,7 @@
         <v>14</v>
       </c>
       <c r="Q20">
-        <v>9.7519268808403208</v>
+        <v>9.76850146647568</v>
       </c>
       <c r="R20">
         <v>1000</v>
@@ -9927,13 +10078,13 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>141565856370.96201</v>
+        <v>16551077704.268</v>
       </c>
       <c r="D21">
         <v>66.697239815286196</v>
       </c>
       <c r="E21">
-        <v>4799961.0730821202</v>
+        <v>3041844.1038654498</v>
       </c>
       <c r="F21">
         <v>12374.4861703962</v>
@@ -9945,13 +10096,13 @@
         <v>6690875616260.21</v>
       </c>
       <c r="I21">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J21">
         <v>50</v>
       </c>
       <c r="K21">
-        <v>10.298461538461501</v>
+        <v>7.4601503759398398</v>
       </c>
       <c r="L21">
         <v>1000</v>
@@ -9969,7 +10120,7 @@
         <v>14</v>
       </c>
       <c r="Q21">
-        <v>9.7957165268399091</v>
+        <v>9.7910783711888598</v>
       </c>
       <c r="R21">
         <v>1000</v>
@@ -9998,13 +10149,13 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>180378666672.81</v>
+        <v>11334379476.688</v>
       </c>
       <c r="D22">
         <v>60.734216057510402</v>
       </c>
       <c r="E22">
-        <v>1942720.7344242299</v>
+        <v>785602.89637495496</v>
       </c>
       <c r="F22">
         <v>8799.3711075484698</v>
@@ -10016,13 +10167,13 @@
         <v>6644217542280.9004</v>
       </c>
       <c r="I22">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J22">
         <v>50</v>
       </c>
       <c r="K22">
-        <v>10.589230769230699</v>
+        <v>7.7596992481202998</v>
       </c>
       <c r="L22">
         <v>1000</v>
@@ -10040,7 +10191,7 @@
         <v>14</v>
       </c>
       <c r="Q22">
-        <v>9.8412113771229794</v>
+        <v>9.7746402018961795</v>
       </c>
       <c r="R22">
         <v>1000</v>
@@ -10069,13 +10220,13 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>202062967236.30099</v>
+        <v>13526214575.0179</v>
       </c>
       <c r="D23">
         <v>66.431498927543402</v>
       </c>
       <c r="E23">
-        <v>73116.085977646697</v>
+        <v>2458623.3374644802</v>
       </c>
       <c r="F23">
         <v>11463.629069107201</v>
@@ -10087,13 +10238,13 @@
         <v>6627500714249.8496</v>
       </c>
       <c r="I23">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J23">
         <v>50</v>
       </c>
       <c r="K23">
-        <v>10.1246153846153</v>
+        <v>7.7236842105263097</v>
       </c>
       <c r="L23">
         <v>1000</v>
@@ -10111,7 +10262,7 @@
         <v>14</v>
       </c>
       <c r="Q23">
-        <v>9.8026055521451401</v>
+        <v>9.8045153809426306</v>
       </c>
       <c r="R23">
         <v>1000</v>
@@ -10140,13 +10291,13 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>242888470502.13901</v>
+        <v>4426510571.1500998</v>
       </c>
       <c r="D24">
         <v>149.89342123325301</v>
       </c>
       <c r="E24">
-        <v>4108493.4241870898</v>
+        <v>114713.959249669</v>
       </c>
       <c r="F24">
         <v>8938.40155684811</v>
@@ -10158,13 +10309,13 @@
         <v>6927595262746</v>
       </c>
       <c r="I24">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J24">
         <v>50</v>
       </c>
       <c r="K24">
-        <v>10.307692307692299</v>
+        <v>7.7096992481202999</v>
       </c>
       <c r="L24">
         <v>1000</v>
@@ -10182,7 +10333,7 @@
         <v>14</v>
       </c>
       <c r="Q24">
-        <v>9.7822113089147997</v>
+        <v>9.7155719255166701</v>
       </c>
       <c r="R24">
         <v>1000</v>
@@ -10211,13 +10362,13 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>185126255783.82199</v>
+        <v>1360851513.0935299</v>
       </c>
       <c r="D25">
         <v>64.996698048223905</v>
       </c>
       <c r="E25">
-        <v>25274098.738621201</v>
+        <v>2162103.91038755</v>
       </c>
       <c r="F25">
         <v>14458.974266123199</v>
@@ -10229,13 +10380,13 @@
         <v>7105471763689.5596</v>
       </c>
       <c r="I25">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J25">
         <v>50</v>
       </c>
       <c r="K25">
-        <v>10.3323076923076</v>
+        <v>7.9044360902255599</v>
       </c>
       <c r="L25">
         <v>1000</v>
@@ -10253,7 +10404,7 @@
         <v>14</v>
       </c>
       <c r="Q25">
-        <v>9.8582634199577104</v>
+        <v>9.7859627583384494</v>
       </c>
       <c r="R25">
         <v>1000</v>
@@ -10282,13 +10433,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>162456066549.716</v>
+        <v>6640191201.4362297</v>
       </c>
       <c r="D26">
         <v>66.414205062566793</v>
       </c>
       <c r="E26">
-        <v>764821.62622199696</v>
+        <v>1429374.37587305</v>
       </c>
       <c r="F26">
         <v>10472.8424664343</v>
@@ -10300,13 +10451,13 @@
         <v>6979600382644.6797</v>
       </c>
       <c r="I26">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J26">
         <v>50</v>
       </c>
       <c r="K26">
-        <v>10.5</v>
+        <v>7.9928571428571402</v>
       </c>
       <c r="L26">
         <v>1000</v>
@@ -10324,7 +10475,7 @@
         <v>14</v>
       </c>
       <c r="Q26">
-        <v>9.7223927426505696</v>
+        <v>9.7933292408430503</v>
       </c>
       <c r="R26">
         <v>1000</v>
@@ -10351,7 +10502,7 @@
       </c>
       <c r="C29">
         <f>AVERAGE(Table3[[#All],[ DG]])</f>
-        <v>218937030945.77216</v>
+        <v>6102709077.9070339</v>
       </c>
       <c r="D29">
         <f>AVERAGE(Table3[[#All],[ Single]])</f>
@@ -10359,7 +10510,7 @@
       </c>
       <c r="E29">
         <f>AVERAGE(Table3[[#All],[ ODG]])</f>
-        <v>78707700.168409243</v>
+        <v>4580912.9002895365</v>
       </c>
       <c r="F29">
         <f>AVERAGE(Table3[[#All],[ Tree]])</f>
@@ -10380,7 +10531,7 @@
       </c>
       <c r="C30">
         <f>_xlfn.STDEV.P(Table3[[#All],[ DG]])</f>
-        <v>84991569620.584717</v>
+        <v>4743718248.3739166</v>
       </c>
       <c r="D30">
         <f>_xlfn.STDEV.P(Table3[[#All],[ Single]])</f>
@@ -10388,7 +10539,7 @@
       </c>
       <c r="E30">
         <f>_xlfn.STDEV.P(Table3[[#All],[ ODG]])</f>
-        <v>291943106.72854769</v>
+        <v>7806642.9955773791</v>
       </c>
       <c r="F30">
         <f>_xlfn.STDEV.P(Table3[[#All],[ Tree]])</f>
@@ -10405,18 +10556,45 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C33">
+        <f>_xlfn.RANK.AVG(C29,$C29:$G29, 1)</f>
         <v>5</v>
       </c>
       <c r="D33">
+        <f t="shared" ref="D33:G33" si="0">_xlfn.RANK.AVG(D29,$C29:$G29, 1)</f>
         <v>1</v>
       </c>
       <c r="E33">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F33">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C34">
+        <f>_xlfn.RANK.AVG(C30,$C30:$G30, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:G34" si="1">_xlfn.RANK.AVG(D30,$C30:$G30, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -10442,15 +10620,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C486F3-048D-4865-AA24-0CFDF2C8BA5A}">
-  <dimension ref="C4:I5"/>
+  <dimension ref="C4:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>26</v>
       </c>
@@ -10467,37 +10645,637 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C5">
         <f>'f20'!C33+'f17'!C33+'f11'!C32+'f5'!C32+'f3'!C32</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <f>'f20'!D33+'f17'!D33+'f11'!D32+'f5'!D32+'f3'!D32</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <f>'f20'!E33+'f17'!E33+'f11'!E32+'f5'!E32+'f3'!E32</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <f>'f20'!F33+'f17'!F33+'f11'!F32+'f5'!F32+'f3'!F32</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <f>'f20'!G33+'f17'!G33+'f11'!G32+'f5'!G32+'f3'!G32</f>
-        <v>13</v>
-      </c>
-      <c r="H5">
-        <f>'f20'!H33+'f17'!H33+'f11'!H32+'f5'!H32+'f3'!H32</f>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f>'f20'!I33+'f17'!I33+'f11'!I32+'f5'!I32+'f3'!I32</f>
-        <v>0</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C6">
+        <f>'f20'!C34+'f17'!C34+'f11'!C33+'f5'!C33</f>
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <f>'f20'!D34+'f17'!D34+'f11'!D33+'f5'!D33</f>
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f>'f20'!E34+'f17'!E34+'f11'!E33+'f5'!E33</f>
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <f>'f20'!F34+'f17'!F34+'f11'!F33+'f5'!F33</f>
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <f>'f20'!G34+'f17'!G34+'f11'!G33+'f5'!G33</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C21760-33D1-46F8-9572-F85B8126FA68}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="8" width="10.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.7934133148069797E-5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.933385495625384E-5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.924257136756591E-5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.3724899550555412</v>
+      </c>
+      <c r="G2" s="1">
+        <v>17.93661665647398</v>
+      </c>
+      <c r="H2" s="1">
+        <v>21.596444649731556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1">
+        <f>_xlfn.STDEV.P(Table1[[#All],[ DG]])</f>
+        <v>8.2314118973672404E-6</v>
+      </c>
+      <c r="D3" s="1">
+        <f>_xlfn.STDEV.P(Table1[[#All],[ Single]])</f>
+        <v>9.0758728256173157E-6</v>
+      </c>
+      <c r="E3" s="1">
+        <f>_xlfn.STDEV.P(Table1[[#All],[ ODG]])</f>
+        <v>9.5217063148959877E-6</v>
+      </c>
+      <c r="F3" s="1">
+        <f>_xlfn.STDEV.P(Table1[[#All],[ Tree]])</f>
+        <v>0.42368045400308657</v>
+      </c>
+      <c r="G3" s="1">
+        <f>_xlfn.STDEV.P(Table1[[#All],[ Tree2]])</f>
+        <v>4.9054841144626797</v>
+      </c>
+      <c r="H3" s="1">
+        <f>_xlfn.STDEV.P(Table1[[#All],[ PSO]])</f>
+        <v>8.4308363747989754E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8045620307.5415096</v>
+      </c>
+      <c r="D4" s="1">
+        <v>594737610.90094733</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1223181670.7820616</v>
+      </c>
+      <c r="F4" s="1">
+        <v>552602243.54623926</v>
+      </c>
+      <c r="G4" s="1">
+        <v>556417168.72967267</v>
+      </c>
+      <c r="H4" s="1">
+        <v>36301605009.781693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2584392977.331883</v>
+      </c>
+      <c r="D5" s="1">
+        <v>130230153.02712326</v>
+      </c>
+      <c r="E5" s="1">
+        <v>415220229.57726288</v>
+      </c>
+      <c r="F5" s="1">
+        <v>112384812.78293437</v>
+      </c>
+      <c r="G5" s="1">
+        <v>126680631.44608428</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2305345818.5641546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1">
+        <v>207.58737038857535</v>
+      </c>
+      <c r="D6" s="1">
+        <v>200.00394319231256</v>
+      </c>
+      <c r="E6" s="1">
+        <v>204.47874343271906</v>
+      </c>
+      <c r="F6" s="1">
+        <v>220.03172575333144</v>
+      </c>
+      <c r="G6" s="1">
+        <v>221.72146317588803</v>
+      </c>
+      <c r="H6" s="1">
+        <v>237.05998192186152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.4519744418208636</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.0745823430185663E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.36661585363621219</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.4626511543362635</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.24816101046920278</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5.8552947376571657E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1768001.3526336646</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2580527.1191297709</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1574740.0357771274</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1747238.6327622917</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1373495.2947128497</v>
+      </c>
+      <c r="H8" s="1">
+        <v>32864938.21294219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1">
+        <v>107095.51807900815</v>
+      </c>
+      <c r="D9" s="1">
+        <v>174442.10735544359</v>
+      </c>
+      <c r="E9" s="1">
+        <v>77857.476921929643</v>
+      </c>
+      <c r="F9" s="1">
+        <v>141621.98260660155</v>
+      </c>
+      <c r="G9" s="1">
+        <v>104482.43111921064</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1910059.2333429952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6102709077.9070339</v>
+      </c>
+      <c r="D10" s="1">
+        <v>73.558642314680441</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4580912.9002895365</v>
+      </c>
+      <c r="F10" s="1">
+        <v>11830.28334987931</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1408998.1187798395</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6823474374520.2051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="4"/>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4743718248.3739166</v>
+      </c>
+      <c r="D11" s="1">
+        <v>23.113760206571857</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7806642.9955773791</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2615.1382746861527</v>
+      </c>
+      <c r="G11" s="1">
+        <v>690762.82583637349</v>
+      </c>
+      <c r="H11" s="1">
+        <v>171006101613.5773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5.7934133148069797E-5</v>
+      </c>
+      <c r="C17" s="1">
+        <f>_xlfn.STDEV.P(Table1[[#All],[ DG]])</f>
+        <v>8.2314118973672404E-6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8045620307.5415096</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2584392977.331883</v>
+      </c>
+      <c r="F17" s="1">
+        <v>207.58737038857535</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.4519744418208636</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1768001.3526336646</v>
+      </c>
+      <c r="I17" s="1">
+        <v>107095.51807900815</v>
+      </c>
+      <c r="J17" s="1">
+        <v>6102709077.9070339</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4743718248.3739166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5.933385495625384E-5</v>
+      </c>
+      <c r="C18" s="1">
+        <f>_xlfn.STDEV.P(Table1[[#All],[ Single]])</f>
+        <v>9.0758728256173157E-6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>594737610.90094733</v>
+      </c>
+      <c r="E18" s="1">
+        <v>130230153.02712326</v>
+      </c>
+      <c r="F18" s="1">
+        <v>200.00394319231256</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.0745823430185663E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2580527.1191297709</v>
+      </c>
+      <c r="I18" s="1">
+        <v>174442.10735544359</v>
+      </c>
+      <c r="J18" s="1">
+        <v>73.558642314680441</v>
+      </c>
+      <c r="K18" s="1">
+        <v>23.113760206571857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5.924257136756591E-5</v>
+      </c>
+      <c r="C19" s="1">
+        <f>_xlfn.STDEV.P(Table1[[#All],[ ODG]])</f>
+        <v>9.5217063148959877E-6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1223181670.7820616</v>
+      </c>
+      <c r="E19" s="1">
+        <v>415220229.57726288</v>
+      </c>
+      <c r="F19" s="1">
+        <v>204.47874343271906</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.36661585363621219</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1574740.0357771274</v>
+      </c>
+      <c r="I19" s="1">
+        <v>77857.476921929643</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4580912.9002895365</v>
+      </c>
+      <c r="K19" s="1">
+        <v>7806642.9955773791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.3724899550555412</v>
+      </c>
+      <c r="C20" s="1">
+        <f>_xlfn.STDEV.P(Table1[[#All],[ Tree]])</f>
+        <v>0.42368045400308657</v>
+      </c>
+      <c r="D20" s="1">
+        <v>552602243.54623926</v>
+      </c>
+      <c r="E20" s="1">
+        <v>112384812.78293437</v>
+      </c>
+      <c r="F20" s="1">
+        <v>220.03172575333144</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.4626511543362635</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1747238.6327622917</v>
+      </c>
+      <c r="I20" s="1">
+        <v>141621.98260660155</v>
+      </c>
+      <c r="J20" s="1">
+        <v>11830.28334987931</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2615.1382746861527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>17.93661665647398</v>
+      </c>
+      <c r="C21" s="1">
+        <f>_xlfn.STDEV.P(Table1[[#All],[ Tree2]])</f>
+        <v>4.9054841144626797</v>
+      </c>
+      <c r="D21" s="1">
+        <v>556417168.72967267</v>
+      </c>
+      <c r="E21" s="1">
+        <v>126680631.44608428</v>
+      </c>
+      <c r="F21" s="1">
+        <v>221.72146317588803</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.24816101046920278</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1373495.2947128497</v>
+      </c>
+      <c r="I21" s="1">
+        <v>104482.43111921064</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1408998.1187798395</v>
+      </c>
+      <c r="K21" s="1">
+        <v>690762.82583637349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21.596444649731556</v>
+      </c>
+      <c r="C22" s="1">
+        <f>_xlfn.STDEV.P(Table1[[#All],[ PSO]])</f>
+        <v>8.4308363747989754E-3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>36301605009.781693</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2305345818.5641546</v>
+      </c>
+      <c r="F22" s="1">
+        <v>237.05998192186152</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5.8552947376571657E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>32864938.21294219</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1910059.2333429952</v>
+      </c>
+      <c r="J22" s="1">
+        <v>6823474374520.2051</v>
+      </c>
+      <c r="K22" s="1">
+        <v>171006101613.5773</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>